--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -102,6 +102,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -128,7 +131,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257:D289"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4773,6 +4776,327 @@
       <c r="D256">
         <f>[1]!S_DQ_Close(D$1,$A256)</f>
         <v>2433.33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B257">
+        <f>[1]!S_DQ_Close(B$1,$A257)</f>
+        <v>4494.2348000000002</v>
+      </c>
+      <c r="C257">
+        <f>[1]!S_DQ_Close(C$1,$A257)</f>
+        <v>173.26660000000001</v>
+      </c>
+      <c r="D257">
+        <f>[1]!S_DQ_Close(D$1,$A257)</f>
+        <v>2426.4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>43055</v>
+      </c>
+      <c r="B258">
+        <f>[1]!S_DQ_Close(B$1,$A258)</f>
+        <v>4523.3262000000004</v>
+      </c>
+      <c r="C258">
+        <f>[1]!S_DQ_Close(C$1,$A258)</f>
+        <v>173.3544</v>
+      </c>
+      <c r="D258">
+        <f>[1]!S_DQ_Close(D$1,$A258)</f>
+        <v>2415.67</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>43056</v>
+      </c>
+      <c r="B259">
+        <f>[1]!S_DQ_Close(B$1,$A259)</f>
+        <v>4499.7538999999997</v>
+      </c>
+      <c r="C259">
+        <f>[1]!S_DQ_Close(C$1,$A259)</f>
+        <v>173.37010000000001</v>
+      </c>
+      <c r="D259">
+        <f>[1]!S_DQ_Close(D$1,$A259)</f>
+        <v>2453.84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>43059</v>
+      </c>
+      <c r="B260">
+        <f>[1]!S_DQ_Close(B$1,$A260)</f>
+        <v>4531.4655000000002</v>
+      </c>
+      <c r="C260">
+        <f>[1]!S_DQ_Close(C$1,$A260)</f>
+        <v>173.36959999999999</v>
+      </c>
+      <c r="D260">
+        <f>[1]!S_DQ_Close(D$1,$A260)</f>
+        <v>2439.52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>43060</v>
+      </c>
+      <c r="B261">
+        <f>[1]!S_DQ_Close(B$1,$A261)</f>
+        <v>4595.3101999999999</v>
+      </c>
+      <c r="C261">
+        <f>[1]!S_DQ_Close(C$1,$A261)</f>
+        <v>173.2621</v>
+      </c>
+      <c r="D261">
+        <f>[1]!S_DQ_Close(D$1,$A261)</f>
+        <v>2450.21</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>43061</v>
+      </c>
+      <c r="B262">
+        <f>[1]!S_DQ_Close(B$1,$A262)</f>
+        <v>4600.1342000000004</v>
+      </c>
+      <c r="C262">
+        <f>[1]!S_DQ_Close(C$1,$A262)</f>
+        <v>172.91419999999999</v>
+      </c>
+      <c r="D262">
+        <f>[1]!S_DQ_Close(D$1,$A262)</f>
+        <v>2475.44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>43062</v>
+      </c>
+      <c r="B263">
+        <f>[1]!S_DQ_Close(B$1,$A263)</f>
+        <v>4468.6952000000001</v>
+      </c>
+      <c r="C263">
+        <f>[1]!S_DQ_Close(C$1,$A263)</f>
+        <v>172.88220000000001</v>
+      </c>
+      <c r="D263">
+        <f>[1]!S_DQ_Close(D$1,$A263)</f>
+        <v>2475.44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B264">
+        <f>[1]!S_DQ_Close(B$1,$A264)</f>
+        <v>4470.8028000000004</v>
+      </c>
+      <c r="C264">
+        <f>[1]!S_DQ_Close(C$1,$A264)</f>
+        <v>173.00530000000001</v>
+      </c>
+      <c r="D264">
+        <f>[1]!S_DQ_Close(D$1,$A264)</f>
+        <v>2488.37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>43066</v>
+      </c>
+      <c r="B265">
+        <f>[1]!S_DQ_Close(B$1,$A265)</f>
+        <v>4411.6112000000003</v>
+      </c>
+      <c r="C265">
+        <f>[1]!S_DQ_Close(C$1,$A265)</f>
+        <v>173.04730000000001</v>
+      </c>
+      <c r="D265">
+        <f>[1]!S_DQ_Close(D$1,$A265)</f>
+        <v>2479.36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>43067</v>
+      </c>
+      <c r="B266">
+        <f>[1]!S_DQ_Close(B$1,$A266)</f>
+        <v>4435.7316000000001</v>
+      </c>
+      <c r="C266">
+        <f>[1]!S_DQ_Close(C$1,$A266)</f>
+        <v>173.00389999999999</v>
+      </c>
+      <c r="D266">
+        <f>[1]!S_DQ_Close(D$1,$A266)</f>
+        <v>2474.62</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>43068</v>
+      </c>
+      <c r="B267">
+        <f>[1]!S_DQ_Close(B$1,$A267)</f>
+        <v>4437.5878000000002</v>
+      </c>
+      <c r="C267">
+        <f>[1]!S_DQ_Close(C$1,$A267)</f>
+        <v>173.06659999999999</v>
+      </c>
+      <c r="D267">
+        <f>[1]!S_DQ_Close(D$1,$A267)</f>
+        <v>2459.29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B268">
+        <f>[1]!S_DQ_Close(B$1,$A268)</f>
+        <v>4388.9976999999999</v>
+      </c>
+      <c r="C268">
+        <f>[1]!S_DQ_Close(C$1,$A268)</f>
+        <v>173.13050000000001</v>
+      </c>
+      <c r="D268">
+        <f>[1]!S_DQ_Close(D$1,$A268)</f>
+        <v>2448.66</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B269">
+        <f>[1]!S_DQ_Close(B$1,$A269)</f>
+        <v>4392.3792000000003</v>
+      </c>
+      <c r="C269">
+        <f>[1]!S_DQ_Close(C$1,$A269)</f>
+        <v>173.17740000000001</v>
+      </c>
+      <c r="D269">
+        <f>[1]!S_DQ_Close(D$1,$A269)</f>
+        <v>2478.92</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270" s="1">
+        <v>43073</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271" s="1">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272" s="1">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="1">
+        <v>43076</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="1">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="1">
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="1">
+        <v>43081</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="1">
+        <v>43082</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="1">
+        <v>43083</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="1">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="1">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="1">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="1">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="1">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="1">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="1">
+        <v>43094</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="1">
+        <v>43095</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="1">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="1">
+        <v>43097</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="1">
+        <v>43098</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
 </workbook>
 </file>
 
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="D264" sqref="D264"/>
+    <sheetView topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D269" sqref="D269:D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5003,93 +5003,273 @@
       <c r="A270" s="1">
         <v>43073</v>
       </c>
+      <c r="B270">
+        <f>[1]!S_DQ_Close(B$1,$A270)</f>
+        <v>4402.2812999999996</v>
+      </c>
+      <c r="C270">
+        <f>[1]!S_DQ_Close(C$1,$A270)</f>
+        <v>173.27799999999999</v>
+      </c>
+      <c r="D270">
+        <f>[1]!S_DQ_Close(D$1,$A270)</f>
+        <v>2444.9699999999998</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>43074</v>
       </c>
+      <c r="B271">
+        <f>[1]!S_DQ_Close(B$1,$A271)</f>
+        <v>4392.3254999999999</v>
+      </c>
+      <c r="C271">
+        <f>[1]!S_DQ_Close(C$1,$A271)</f>
+        <v>173.31610000000001</v>
+      </c>
+      <c r="D271">
+        <f>[1]!S_DQ_Close(D$1,$A271)</f>
+        <v>2440.36</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>43075</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B272">
+        <f>[1]!S_DQ_Close(B$1,$A272)</f>
+        <v>4380.0717999999997</v>
+      </c>
+      <c r="C272">
+        <f>[1]!S_DQ_Close(C$1,$A272)</f>
+        <v>173.34690000000001</v>
+      </c>
+      <c r="D272">
+        <f>[1]!S_DQ_Close(D$1,$A272)</f>
+        <v>2393.65</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>43076</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B273">
+        <f>[1]!S_DQ_Close(B$1,$A273)</f>
+        <v>4337.0702000000001</v>
+      </c>
+      <c r="C273">
+        <f>[1]!S_DQ_Close(C$1,$A273)</f>
+        <v>173.3426</v>
+      </c>
+      <c r="D273">
+        <f>[1]!S_DQ_Close(D$1,$A273)</f>
+        <v>2405.2399999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>43077</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B274">
+        <f>[1]!S_DQ_Close(B$1,$A274)</f>
+        <v>4375.6522000000004</v>
+      </c>
+      <c r="C274">
+        <f>[1]!S_DQ_Close(C$1,$A274)</f>
+        <v>173.31559999999999</v>
+      </c>
+      <c r="D274">
+        <f>[1]!S_DQ_Close(D$1,$A274)</f>
+        <v>2426.09</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>43080</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B275">
+        <f>[1]!S_DQ_Close(B$1,$A275)</f>
+        <v>4444.3242</v>
+      </c>
+      <c r="C275">
+        <f>[1]!S_DQ_Close(C$1,$A275)</f>
+        <v>173.23310000000001</v>
+      </c>
+      <c r="D275">
+        <f>[1]!S_DQ_Close(D$1,$A275)</f>
+        <v>2444.38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>43081</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B276">
+        <f>[1]!S_DQ_Close(B$1,$A276)</f>
+        <v>4391.4048000000003</v>
+      </c>
+      <c r="C276">
+        <f>[1]!S_DQ_Close(C$1,$A276)</f>
+        <v>173.17070000000001</v>
+      </c>
+      <c r="D276">
+        <f>[1]!S_DQ_Close(D$1,$A276)</f>
+        <v>2416.37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>43082</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B277">
+        <f>[1]!S_DQ_Close(B$1,$A277)</f>
+        <v>4427.0636999999997</v>
+      </c>
+      <c r="C277">
+        <f>[1]!S_DQ_Close(C$1,$A277)</f>
+        <v>173.15729999999999</v>
+      </c>
+      <c r="D277">
+        <f>[1]!S_DQ_Close(D$1,$A277)</f>
+        <v>2401.52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>43083</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B278">
+        <f>[1]!S_DQ_Close(B$1,$A278)</f>
+        <v>4408.9904999999999</v>
+      </c>
+      <c r="C278">
+        <f>[1]!S_DQ_Close(C$1,$A278)</f>
+        <v>173.20519999999999</v>
+      </c>
+      <c r="D278">
+        <f>[1]!S_DQ_Close(D$1,$A278)</f>
+        <v>2418.54</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>43084</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B279">
+        <f>[1]!S_DQ_Close(B$1,$A279)</f>
+        <v>4363.5291999999999</v>
+      </c>
+      <c r="C279">
+        <f>[1]!S_DQ_Close(C$1,$A279)</f>
+        <v>173.30119999999999</v>
+      </c>
+      <c r="D279">
+        <f>[1]!S_DQ_Close(D$1,$A279)</f>
+        <v>2424.0500000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>43087</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B280">
+        <f>[1]!S_DQ_Close(B$1,$A280)</f>
+        <v>4360.4849999999997</v>
+      </c>
+      <c r="C280">
+        <f>[1]!S_DQ_Close(C$1,$A280)</f>
+        <v>173.36600000000001</v>
+      </c>
+      <c r="D280">
+        <f>[1]!S_DQ_Close(D$1,$A280)</f>
+        <v>2432.4299999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>43088</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B281">
+        <f>[1]!S_DQ_Close(B$1,$A281)</f>
+        <v>4410.3131000000003</v>
+      </c>
+      <c r="C281">
+        <f>[1]!S_DQ_Close(C$1,$A281)</f>
+        <v>173.35749999999999</v>
+      </c>
+      <c r="D281">
+        <f>[1]!S_DQ_Close(D$1,$A281)</f>
+        <v>2442.44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>43089</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B282">
+        <f>[1]!S_DQ_Close(B$1,$A282)</f>
+        <v>4396.8114999999998</v>
+      </c>
+      <c r="C282">
+        <f>[1]!S_DQ_Close(C$1,$A282)</f>
+        <v>173.334</v>
+      </c>
+      <c r="D282">
+        <f>[1]!S_DQ_Close(D$1,$A282)</f>
+        <v>2460.7800000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>43090</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B283">
+        <f>[1]!S_DQ_Close(B$1,$A283)</f>
+        <v>4434.1741000000002</v>
+      </c>
+      <c r="C283">
+        <f>[1]!S_DQ_Close(C$1,$A283)</f>
+        <v>173.31049999999999</v>
+      </c>
+      <c r="D283">
+        <f>[1]!S_DQ_Close(D$1,$A283)</f>
+        <v>2471.36</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>43091</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B284">
+        <f>[1]!S_DQ_Close(B$1,$A284)</f>
+        <v>4424.3019000000004</v>
+      </c>
+      <c r="C284">
+        <f>[1]!S_DQ_Close(C$1,$A284)</f>
+        <v>173.34280000000001</v>
+      </c>
+      <c r="D284">
+        <f>[1]!S_DQ_Close(D$1,$A284)</f>
+        <v>2480.34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>43094</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>43095</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>43096</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>43097</v>
       </c>
@@ -5107,10 +5287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5358,6 +5538,28 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,12 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>000906.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>065.CS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +32,14 @@
   </si>
   <si>
     <t>70个大中城市二手住宅价格指数:环比</t>
+  </si>
+  <si>
+    <t>H11025.CSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000906.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="D269" sqref="D269:D284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,20 +435,23 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("2016-11-01","2017-12-31","cols=1;rows=288")</f>
+        <f>[1]!TDays("2016-11-01","2018-01-11","cols=1;rows=296")</f>
         <v>42675</v>
       </c>
       <c r="B2">
@@ -459,8 +466,12 @@
         <f>[1]!S_DQ_Close(D$1,$A2)</f>
         <v>2245.0700000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <f>[1]!S_DQ_Close(E$1,$A2)</f>
+        <v>1395.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42676</v>
       </c>
@@ -476,8 +487,12 @@
         <f>[1]!S_DQ_Close(D$1,$A3)</f>
         <v>2209.59</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <f>[1]!S_DQ_Close(E$1,$A3)</f>
+        <v>1395.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42677</v>
       </c>
@@ -493,8 +508,12 @@
         <f>[1]!S_DQ_Close(D$1,$A4)</f>
         <v>2193.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <f>[1]!S_DQ_Close(E$1,$A4)</f>
+        <v>1395.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42678</v>
       </c>
@@ -510,8 +529,12 @@
         <f>[1]!S_DQ_Close(D$1,$A5)</f>
         <v>2173.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <f>[1]!S_DQ_Close(E$1,$A5)</f>
+        <v>1395.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>42681</v>
       </c>
@@ -527,8 +550,12 @@
         <f>[1]!S_DQ_Close(D$1,$A6)</f>
         <v>2190.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <f>[1]!S_DQ_Close(E$1,$A6)</f>
+        <v>1396.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>42682</v>
       </c>
@@ -544,8 +571,12 @@
         <f>[1]!S_DQ_Close(D$1,$A7)</f>
         <v>2193.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <f>[1]!S_DQ_Close(E$1,$A7)</f>
+        <v>1396.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>42683</v>
       </c>
@@ -561,8 +592,12 @@
         <f>[1]!S_DQ_Close(D$1,$A8)</f>
         <v>2197.23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <f>[1]!S_DQ_Close(E$1,$A8)</f>
+        <v>1396.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>42684</v>
       </c>
@@ -578,8 +613,12 @@
         <f>[1]!S_DQ_Close(D$1,$A9)</f>
         <v>2197.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <f>[1]!S_DQ_Close(E$1,$A9)</f>
+        <v>1396.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42685</v>
       </c>
@@ -595,8 +634,12 @@
         <f>[1]!S_DQ_Close(D$1,$A10)</f>
         <v>2148.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <f>[1]!S_DQ_Close(E$1,$A10)</f>
+        <v>1396.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42688</v>
       </c>
@@ -612,8 +655,12 @@
         <f>[1]!S_DQ_Close(D$1,$A11)</f>
         <v>2139.9699999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <f>[1]!S_DQ_Close(E$1,$A11)</f>
+        <v>1396.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42689</v>
       </c>
@@ -629,8 +676,12 @@
         <f>[1]!S_DQ_Close(D$1,$A12)</f>
         <v>2198.69</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <f>[1]!S_DQ_Close(E$1,$A12)</f>
+        <v>1396.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42690</v>
       </c>
@@ -646,8 +697,12 @@
         <f>[1]!S_DQ_Close(D$1,$A13)</f>
         <v>2187.6999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <f>[1]!S_DQ_Close(E$1,$A13)</f>
+        <v>1397.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>42691</v>
       </c>
@@ -663,8 +718,12 @@
         <f>[1]!S_DQ_Close(D$1,$A14)</f>
         <v>2190.2399999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <f>[1]!S_DQ_Close(E$1,$A14)</f>
+        <v>1397.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>42692</v>
       </c>
@@ -680,8 +739,12 @@
         <f>[1]!S_DQ_Close(D$1,$A15)</f>
         <v>2200.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <f>[1]!S_DQ_Close(E$1,$A15)</f>
+        <v>1397.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42695</v>
       </c>
@@ -697,8 +760,12 @@
         <f>[1]!S_DQ_Close(D$1,$A16)</f>
         <v>2267.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <f>[1]!S_DQ_Close(E$1,$A16)</f>
+        <v>1397.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42696</v>
       </c>
@@ -714,8 +781,12 @@
         <f>[1]!S_DQ_Close(D$1,$A17)</f>
         <v>2270.0500000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <f>[1]!S_DQ_Close(E$1,$A17)</f>
+        <v>1397.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42697</v>
       </c>
@@ -731,8 +802,12 @@
         <f>[1]!S_DQ_Close(D$1,$A18)</f>
         <v>2271.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <f>[1]!S_DQ_Close(E$1,$A18)</f>
+        <v>1397.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42698</v>
       </c>
@@ -748,8 +823,12 @@
         <f>[1]!S_DQ_Close(D$1,$A19)</f>
         <v>2271.64</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <f>[1]!S_DQ_Close(E$1,$A19)</f>
+        <v>1397.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42699</v>
       </c>
@@ -765,8 +844,12 @@
         <f>[1]!S_DQ_Close(D$1,$A20)</f>
         <v>2234.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <f>[1]!S_DQ_Close(E$1,$A20)</f>
+        <v>1397.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42702</v>
       </c>
@@ -782,8 +865,12 @@
         <f>[1]!S_DQ_Close(D$1,$A21)</f>
         <v>2266.67</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <f>[1]!S_DQ_Close(E$1,$A21)</f>
+        <v>1398.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42703</v>
       </c>
@@ -799,8 +886,12 @@
         <f>[1]!S_DQ_Close(D$1,$A22)</f>
         <v>2203.0300000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <f>[1]!S_DQ_Close(E$1,$A22)</f>
+        <v>1398.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42704</v>
       </c>
@@ -816,8 +907,12 @@
         <f>[1]!S_DQ_Close(D$1,$A23)</f>
         <v>2308.46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <f>[1]!S_DQ_Close(E$1,$A23)</f>
+        <v>1398.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42705</v>
       </c>
@@ -833,8 +928,12 @@
         <f>[1]!S_DQ_Close(D$1,$A24)</f>
         <v>2354.6799999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <f>[1]!S_DQ_Close(E$1,$A24)</f>
+        <v>1398.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42706</v>
       </c>
@@ -850,8 +949,12 @@
         <f>[1]!S_DQ_Close(D$1,$A25)</f>
         <v>2364.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <f>[1]!S_DQ_Close(E$1,$A25)</f>
+        <v>1398.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42709</v>
       </c>
@@ -867,8 +970,12 @@
         <f>[1]!S_DQ_Close(D$1,$A26)</f>
         <v>2387.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <f>[1]!S_DQ_Close(E$1,$A26)</f>
+        <v>1398.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42710</v>
       </c>
@@ -884,8 +991,12 @@
         <f>[1]!S_DQ_Close(D$1,$A27)</f>
         <v>2369.23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <f>[1]!S_DQ_Close(E$1,$A27)</f>
+        <v>1398.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42711</v>
       </c>
@@ -901,8 +1012,12 @@
         <f>[1]!S_DQ_Close(D$1,$A28)</f>
         <v>2342.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <f>[1]!S_DQ_Close(E$1,$A28)</f>
+        <v>1398.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42712</v>
       </c>
@@ -918,8 +1033,12 @@
         <f>[1]!S_DQ_Close(D$1,$A29)</f>
         <v>2360.02</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <f>[1]!S_DQ_Close(E$1,$A29)</f>
+        <v>1399.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42713</v>
       </c>
@@ -935,8 +1054,12 @@
         <f>[1]!S_DQ_Close(D$1,$A30)</f>
         <v>2379.5700000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <f>[1]!S_DQ_Close(E$1,$A30)</f>
+        <v>1399.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42716</v>
       </c>
@@ -952,8 +1075,12 @@
         <f>[1]!S_DQ_Close(D$1,$A31)</f>
         <v>2409.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <f>[1]!S_DQ_Close(E$1,$A31)</f>
+        <v>1399.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42717</v>
       </c>
@@ -969,8 +1096,12 @@
         <f>[1]!S_DQ_Close(D$1,$A32)</f>
         <v>2408.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32">
+        <f>[1]!S_DQ_Close(E$1,$A32)</f>
+        <v>1399.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42718</v>
       </c>
@@ -986,8 +1117,12 @@
         <f>[1]!S_DQ_Close(D$1,$A33)</f>
         <v>2373.88</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <f>[1]!S_DQ_Close(E$1,$A33)</f>
+        <v>1399.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42719</v>
       </c>
@@ -1003,8 +1138,12 @@
         <f>[1]!S_DQ_Close(D$1,$A34)</f>
         <v>2362.41</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <f>[1]!S_DQ_Close(E$1,$A34)</f>
+        <v>1399.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42720</v>
       </c>
@@ -1020,8 +1159,12 @@
         <f>[1]!S_DQ_Close(D$1,$A35)</f>
         <v>2388.0500000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <f>[1]!S_DQ_Close(E$1,$A35)</f>
+        <v>1399.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42723</v>
       </c>
@@ -1037,8 +1180,12 @@
         <f>[1]!S_DQ_Close(D$1,$A36)</f>
         <v>2379.7800000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <f>[1]!S_DQ_Close(E$1,$A36)</f>
+        <v>1400.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>42724</v>
       </c>
@@ -1054,8 +1201,12 @@
         <f>[1]!S_DQ_Close(D$1,$A37)</f>
         <v>2381.2800000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <f>[1]!S_DQ_Close(E$1,$A37)</f>
+        <v>1400.27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42725</v>
       </c>
@@ -1071,8 +1222,12 @@
         <f>[1]!S_DQ_Close(D$1,$A38)</f>
         <v>2371.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <f>[1]!S_DQ_Close(E$1,$A38)</f>
+        <v>1400.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>42726</v>
       </c>
@@ -1088,8 +1243,12 @@
         <f>[1]!S_DQ_Close(D$1,$A39)</f>
         <v>2379.09</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <f>[1]!S_DQ_Close(E$1,$A39)</f>
+        <v>1400.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42727</v>
       </c>
@@ -1105,8 +1264,12 @@
         <f>[1]!S_DQ_Close(D$1,$A40)</f>
         <v>2378.73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <f>[1]!S_DQ_Close(E$1,$A40)</f>
+        <v>1400.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42730</v>
       </c>
@@ -1122,8 +1285,12 @@
         <f>[1]!S_DQ_Close(D$1,$A41)</f>
         <v>2378.73</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <f>[1]!S_DQ_Close(E$1,$A41)</f>
+        <v>1400.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42731</v>
       </c>
@@ -1139,8 +1306,12 @@
         <f>[1]!S_DQ_Close(D$1,$A42)</f>
         <v>2417.2800000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <f>[1]!S_DQ_Close(E$1,$A42)</f>
+        <v>1401.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42732</v>
       </c>
@@ -1156,8 +1327,12 @@
         <f>[1]!S_DQ_Close(D$1,$A43)</f>
         <v>2423.14</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <f>[1]!S_DQ_Close(E$1,$A43)</f>
+        <v>1401.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42733</v>
       </c>
@@ -1173,8 +1348,12 @@
         <f>[1]!S_DQ_Close(D$1,$A44)</f>
         <v>2418.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <f>[1]!S_DQ_Close(E$1,$A44)</f>
+        <v>1401.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42734</v>
       </c>
@@ -1190,8 +1369,12 @@
         <f>[1]!S_DQ_Close(D$1,$A45)</f>
         <v>2417.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <f>[1]!S_DQ_Close(E$1,$A45)</f>
+        <v>1401.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>42738</v>
       </c>
@@ -1207,8 +1390,12 @@
         <f>[1]!S_DQ_Close(D$1,$A46)</f>
         <v>2371.67</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <f>[1]!S_DQ_Close(E$1,$A46)</f>
+        <v>1402.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>42739</v>
       </c>
@@ -1224,8 +1411,12 @@
         <f>[1]!S_DQ_Close(D$1,$A47)</f>
         <v>2404.9899999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <f>[1]!S_DQ_Close(E$1,$A47)</f>
+        <v>1402.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>42740</v>
       </c>
@@ -1241,8 +1432,12 @@
         <f>[1]!S_DQ_Close(D$1,$A48)</f>
         <v>2415.3200000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <f>[1]!S_DQ_Close(E$1,$A48)</f>
+        <v>1402.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>42741</v>
       </c>
@@ -1258,8 +1453,12 @@
         <f>[1]!S_DQ_Close(D$1,$A49)</f>
         <v>2417.41</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <f>[1]!S_DQ_Close(E$1,$A49)</f>
+        <v>1402.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>42744</v>
       </c>
@@ -1275,8 +1474,12 @@
         <f>[1]!S_DQ_Close(D$1,$A50)</f>
         <v>2366.12</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <f>[1]!S_DQ_Close(E$1,$A50)</f>
+        <v>1402.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>42745</v>
       </c>
@@ -1292,8 +1495,12 @@
         <f>[1]!S_DQ_Close(D$1,$A51)</f>
         <v>2353.02</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <f>[1]!S_DQ_Close(E$1,$A51)</f>
+        <v>1402.88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>42746</v>
       </c>
@@ -1309,8 +1516,12 @@
         <f>[1]!S_DQ_Close(D$1,$A52)</f>
         <v>2382.92</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <f>[1]!S_DQ_Close(E$1,$A52)</f>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>42747</v>
       </c>
@@ -1326,8 +1537,12 @@
         <f>[1]!S_DQ_Close(D$1,$A53)</f>
         <v>2415.59</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <f>[1]!S_DQ_Close(E$1,$A53)</f>
+        <v>1403.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42748</v>
       </c>
@@ -1343,8 +1558,12 @@
         <f>[1]!S_DQ_Close(D$1,$A54)</f>
         <v>2406.7600000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <f>[1]!S_DQ_Close(E$1,$A54)</f>
+        <v>1403.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42751</v>
       </c>
@@ -1360,8 +1579,12 @@
         <f>[1]!S_DQ_Close(D$1,$A55)</f>
         <v>2406.7600000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <f>[1]!S_DQ_Close(E$1,$A55)</f>
+        <v>1403.59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42752</v>
       </c>
@@ -1377,8 +1600,12 @@
         <f>[1]!S_DQ_Close(D$1,$A56)</f>
         <v>2413.25</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <f>[1]!S_DQ_Close(E$1,$A56)</f>
+        <v>1403.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42753</v>
       </c>
@@ -1394,8 +1621,12 @@
         <f>[1]!S_DQ_Close(D$1,$A57)</f>
         <v>2378.7600000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <f>[1]!S_DQ_Close(E$1,$A57)</f>
+        <v>1403.83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42754</v>
       </c>
@@ -1411,8 +1642,12 @@
         <f>[1]!S_DQ_Close(D$1,$A58)</f>
         <v>2377.5100000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <f>[1]!S_DQ_Close(E$1,$A58)</f>
+        <v>1403.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42755</v>
       </c>
@@ -1428,8 +1663,12 @@
         <f>[1]!S_DQ_Close(D$1,$A59)</f>
         <v>2404.34</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <f>[1]!S_DQ_Close(E$1,$A59)</f>
+        <v>1404.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42758</v>
       </c>
@@ -1445,8 +1684,12 @@
         <f>[1]!S_DQ_Close(D$1,$A60)</f>
         <v>2400.58</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <f>[1]!S_DQ_Close(E$1,$A60)</f>
+        <v>1404.47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42759</v>
       </c>
@@ -1462,8 +1705,12 @@
         <f>[1]!S_DQ_Close(D$1,$A61)</f>
         <v>2409.04</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <f>[1]!S_DQ_Close(E$1,$A61)</f>
+        <v>1404.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42760</v>
       </c>
@@ -1479,8 +1726,12 @@
         <f>[1]!S_DQ_Close(D$1,$A62)</f>
         <v>2395.58</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <f>[1]!S_DQ_Close(E$1,$A62)</f>
+        <v>1404.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42761</v>
       </c>
@@ -1496,8 +1747,12 @@
         <f>[1]!S_DQ_Close(D$1,$A63)</f>
         <v>2412.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <f>[1]!S_DQ_Close(E$1,$A63)</f>
+        <v>1404.87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42769</v>
       </c>
@@ -1513,8 +1768,12 @@
         <f>[1]!S_DQ_Close(D$1,$A64)</f>
         <v>2410.64</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <f>[1]!S_DQ_Close(E$1,$A64)</f>
+        <v>1405.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42772</v>
       </c>
@@ -1530,8 +1789,12 @@
         <f>[1]!S_DQ_Close(D$1,$A65)</f>
         <v>2388.9699999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <f>[1]!S_DQ_Close(E$1,$A65)</f>
+        <v>1406.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42773</v>
       </c>
@@ -1547,8 +1810,12 @@
         <f>[1]!S_DQ_Close(D$1,$A66)</f>
         <v>2374.37</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <f>[1]!S_DQ_Close(E$1,$A66)</f>
+        <v>1406.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42774</v>
       </c>
@@ -1564,8 +1831,12 @@
         <f>[1]!S_DQ_Close(D$1,$A67)</f>
         <v>2387.31</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <f>[1]!S_DQ_Close(E$1,$A67)</f>
+        <v>1406.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42775</v>
       </c>
@@ -1581,8 +1852,12 @@
         <f>[1]!S_DQ_Close(D$1,$A68)</f>
         <v>2398.73</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <f>[1]!S_DQ_Close(E$1,$A68)</f>
+        <v>1406.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42776</v>
       </c>
@@ -1598,8 +1873,12 @@
         <f>[1]!S_DQ_Close(D$1,$A69)</f>
         <v>2428.42</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <f>[1]!S_DQ_Close(E$1,$A69)</f>
+        <v>1406.74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42779</v>
       </c>
@@ -1615,8 +1894,12 @@
         <f>[1]!S_DQ_Close(D$1,$A70)</f>
         <v>2397.42</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <f>[1]!S_DQ_Close(E$1,$A70)</f>
+        <v>1407.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42780</v>
       </c>
@@ -1632,8 +1915,12 @@
         <f>[1]!S_DQ_Close(D$1,$A71)</f>
         <v>2405.3000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <f>[1]!S_DQ_Close(E$1,$A71)</f>
+        <v>1407.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42781</v>
       </c>
@@ -1649,8 +1936,12 @@
         <f>[1]!S_DQ_Close(D$1,$A72)</f>
         <v>2407.56</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <f>[1]!S_DQ_Close(E$1,$A72)</f>
+        <v>1407.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42782</v>
       </c>
@@ -1666,8 +1957,12 @@
         <f>[1]!S_DQ_Close(D$1,$A73)</f>
         <v>2397.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <f>[1]!S_DQ_Close(E$1,$A73)</f>
+        <v>1407.48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42783</v>
       </c>
@@ -1683,8 +1978,12 @@
         <f>[1]!S_DQ_Close(D$1,$A74)</f>
         <v>2393.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <f>[1]!S_DQ_Close(E$1,$A74)</f>
+        <v>1407.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42786</v>
       </c>
@@ -1700,8 +1999,12 @@
         <f>[1]!S_DQ_Close(D$1,$A75)</f>
         <v>2393.09</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <f>[1]!S_DQ_Close(E$1,$A75)</f>
+        <v>1407.98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42787</v>
       </c>
@@ -1717,8 +2020,12 @@
         <f>[1]!S_DQ_Close(D$1,$A76)</f>
         <v>2402.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <f>[1]!S_DQ_Close(E$1,$A76)</f>
+        <v>1408.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42788</v>
       </c>
@@ -1734,8 +2041,12 @@
         <f>[1]!S_DQ_Close(D$1,$A77)</f>
         <v>2384.67</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <f>[1]!S_DQ_Close(E$1,$A77)</f>
+        <v>1408.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42789</v>
       </c>
@@ -1751,8 +2062,12 @@
         <f>[1]!S_DQ_Close(D$1,$A78)</f>
         <v>2397.54</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <f>[1]!S_DQ_Close(E$1,$A78)</f>
+        <v>1408.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42790</v>
       </c>
@@ -1768,8 +2083,12 @@
         <f>[1]!S_DQ_Close(D$1,$A79)</f>
         <v>2386.25</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <f>[1]!S_DQ_Close(E$1,$A79)</f>
+        <v>1408.51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42793</v>
       </c>
@@ -1785,8 +2104,12 @@
         <f>[1]!S_DQ_Close(D$1,$A80)</f>
         <v>2381.8000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <f>[1]!S_DQ_Close(E$1,$A80)</f>
+        <v>1408.91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42794</v>
       </c>
@@ -1802,8 +2125,12 @@
         <f>[1]!S_DQ_Close(D$1,$A81)</f>
         <v>2388.69</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <f>[1]!S_DQ_Close(E$1,$A81)</f>
+        <v>1409.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42795</v>
       </c>
@@ -1819,8 +2146,12 @@
         <f>[1]!S_DQ_Close(D$1,$A82)</f>
         <v>2394.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <f>[1]!S_DQ_Close(E$1,$A82)</f>
+        <v>1409.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42796</v>
       </c>
@@ -1836,8 +2167,12 @@
         <f>[1]!S_DQ_Close(D$1,$A83)</f>
         <v>2352.52</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <f>[1]!S_DQ_Close(E$1,$A83)</f>
+        <v>1409.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42797</v>
       </c>
@@ -1853,8 +2188,12 @@
         <f>[1]!S_DQ_Close(D$1,$A84)</f>
         <v>2367.0700000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <f>[1]!S_DQ_Close(E$1,$A84)</f>
+        <v>1409.45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42800</v>
       </c>
@@ -1870,8 +2209,12 @@
         <f>[1]!S_DQ_Close(D$1,$A85)</f>
         <v>2368.48</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <f>[1]!S_DQ_Close(E$1,$A85)</f>
+        <v>1409.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42801</v>
       </c>
@@ -1887,8 +2230,12 @@
         <f>[1]!S_DQ_Close(D$1,$A86)</f>
         <v>2358.04</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <f>[1]!S_DQ_Close(E$1,$A86)</f>
+        <v>1409.98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42802</v>
       </c>
@@ -1904,8 +2251,12 @@
         <f>[1]!S_DQ_Close(D$1,$A87)</f>
         <v>2297.65</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <f>[1]!S_DQ_Close(E$1,$A87)</f>
+        <v>1410.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42803</v>
       </c>
@@ -1921,8 +2272,12 @@
         <f>[1]!S_DQ_Close(D$1,$A88)</f>
         <v>2265.34</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <f>[1]!S_DQ_Close(E$1,$A88)</f>
+        <v>1410.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42804</v>
       </c>
@@ -1938,8 +2293,12 @@
         <f>[1]!S_DQ_Close(D$1,$A89)</f>
         <v>2248.13</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <f>[1]!S_DQ_Close(E$1,$A89)</f>
+        <v>1410.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42807</v>
       </c>
@@ -1955,8 +2314,12 @@
         <f>[1]!S_DQ_Close(D$1,$A90)</f>
         <v>2246.63</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <f>[1]!S_DQ_Close(E$1,$A90)</f>
+        <v>1410.76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42808</v>
       </c>
@@ -1972,8 +2335,12 @@
         <f>[1]!S_DQ_Close(D$1,$A91)</f>
         <v>2229.2399999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <f>[1]!S_DQ_Close(E$1,$A91)</f>
+        <v>1410.89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42809</v>
       </c>
@@ -1989,8 +2356,12 @@
         <f>[1]!S_DQ_Close(D$1,$A92)</f>
         <v>2256.98</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <f>[1]!S_DQ_Close(E$1,$A92)</f>
+        <v>1411.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42810</v>
       </c>
@@ -2006,8 +2377,12 @@
         <f>[1]!S_DQ_Close(D$1,$A93)</f>
         <v>2259.19</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <f>[1]!S_DQ_Close(E$1,$A93)</f>
+        <v>1411.15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42811</v>
       </c>
@@ -2023,8 +2398,12 @@
         <f>[1]!S_DQ_Close(D$1,$A94)</f>
         <v>2264.3200000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <f>[1]!S_DQ_Close(E$1,$A94)</f>
+        <v>1411.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42814</v>
       </c>
@@ -2040,8 +2419,12 @@
         <f>[1]!S_DQ_Close(D$1,$A95)</f>
         <v>2258.79</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <f>[1]!S_DQ_Close(E$1,$A95)</f>
+        <v>1411.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42815</v>
       </c>
@@ -2057,8 +2440,12 @@
         <f>[1]!S_DQ_Close(D$1,$A96)</f>
         <v>2242.58</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <f>[1]!S_DQ_Close(E$1,$A96)</f>
+        <v>1411.83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42816</v>
       </c>
@@ -2074,8 +2461,12 @@
         <f>[1]!S_DQ_Close(D$1,$A97)</f>
         <v>2235.62</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <f>[1]!S_DQ_Close(E$1,$A97)</f>
+        <v>1412.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42817</v>
       </c>
@@ -2091,8 +2482,12 @@
         <f>[1]!S_DQ_Close(D$1,$A98)</f>
         <v>2231.0500000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <f>[1]!S_DQ_Close(E$1,$A98)</f>
+        <v>1412.31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42818</v>
       </c>
@@ -2108,8 +2503,12 @@
         <f>[1]!S_DQ_Close(D$1,$A99)</f>
         <v>2235.17</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <f>[1]!S_DQ_Close(E$1,$A99)</f>
+        <v>1412.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42821</v>
       </c>
@@ -2125,8 +2524,12 @@
         <f>[1]!S_DQ_Close(D$1,$A100)</f>
         <v>2226.9299999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <f>[1]!S_DQ_Close(E$1,$A100)</f>
+        <v>1412.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42822</v>
       </c>
@@ -2142,8 +2545,12 @@
         <f>[1]!S_DQ_Close(D$1,$A101)</f>
         <v>2246.65</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <f>[1]!S_DQ_Close(E$1,$A101)</f>
+        <v>1413.0284999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42823</v>
       </c>
@@ -2159,8 +2566,12 @@
         <f>[1]!S_DQ_Close(D$1,$A102)</f>
         <v>2274.9299999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <f>[1]!S_DQ_Close(E$1,$A102)</f>
+        <v>1413.1815999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42824</v>
       </c>
@@ -2176,8 +2587,12 @@
         <f>[1]!S_DQ_Close(D$1,$A103)</f>
         <v>2288.85</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <f>[1]!S_DQ_Close(E$1,$A103)</f>
+        <v>1413.3299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42825</v>
       </c>
@@ -2193,8 +2608,12 @@
         <f>[1]!S_DQ_Close(D$1,$A104)</f>
         <v>2295.19</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <f>[1]!S_DQ_Close(E$1,$A104)</f>
+        <v>1413.4822999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42830</v>
       </c>
@@ -2210,8 +2629,12 @@
         <f>[1]!S_DQ_Close(D$1,$A105)</f>
         <v>2310.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <f>[1]!S_DQ_Close(E$1,$A105)</f>
+        <v>1414.2159999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42831</v>
       </c>
@@ -2227,8 +2650,12 @@
         <f>[1]!S_DQ_Close(D$1,$A106)</f>
         <v>2322.7800000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <f>[1]!S_DQ_Close(E$1,$A106)</f>
+        <v>1414.3585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42832</v>
       </c>
@@ -2244,8 +2671,12 @@
         <f>[1]!S_DQ_Close(D$1,$A107)</f>
         <v>2333.35</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <f>[1]!S_DQ_Close(E$1,$A107)</f>
+        <v>1414.502</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42835</v>
       </c>
@@ -2261,8 +2692,12 @@
         <f>[1]!S_DQ_Close(D$1,$A108)</f>
         <v>2351.4699999999998</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <f>[1]!S_DQ_Close(E$1,$A108)</f>
+        <v>1414.9335000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42836</v>
       </c>
@@ -2278,8 +2713,12 @@
         <f>[1]!S_DQ_Close(D$1,$A109)</f>
         <v>2358.38</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <f>[1]!S_DQ_Close(E$1,$A109)</f>
+        <v>1415.0744</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42837</v>
       </c>
@@ -2295,8 +2734,12 @@
         <f>[1]!S_DQ_Close(D$1,$A110)</f>
         <v>2351.29</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <f>[1]!S_DQ_Close(E$1,$A110)</f>
+        <v>1415.2137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42838</v>
       </c>
@@ -2312,8 +2755,12 @@
         <f>[1]!S_DQ_Close(D$1,$A111)</f>
         <v>2356.5100000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <f>[1]!S_DQ_Close(E$1,$A111)</f>
+        <v>1415.3525999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42839</v>
       </c>
@@ -2329,8 +2776,12 @@
         <f>[1]!S_DQ_Close(D$1,$A112)</f>
         <v>2356.5100000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <f>[1]!S_DQ_Close(E$1,$A112)</f>
+        <v>1415.4929</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42842</v>
       </c>
@@ -2346,8 +2797,12 @@
         <f>[1]!S_DQ_Close(D$1,$A113)</f>
         <v>2343.39</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <f>[1]!S_DQ_Close(E$1,$A113)</f>
+        <v>1415.9096</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42843</v>
       </c>
@@ -2363,8 +2818,12 @@
         <f>[1]!S_DQ_Close(D$1,$A114)</f>
         <v>2327.19</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <f>[1]!S_DQ_Close(E$1,$A114)</f>
+        <v>1416.0507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42844</v>
       </c>
@@ -2380,8 +2839,12 @@
         <f>[1]!S_DQ_Close(D$1,$A115)</f>
         <v>2281.9499999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <f>[1]!S_DQ_Close(E$1,$A115)</f>
+        <v>1416.1895999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42845</v>
       </c>
@@ -2397,8 +2860,12 @@
         <f>[1]!S_DQ_Close(D$1,$A116)</f>
         <v>2275.37</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <f>[1]!S_DQ_Close(E$1,$A116)</f>
+        <v>1416.3293000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42846</v>
       </c>
@@ -2414,8 +2881,12 @@
         <f>[1]!S_DQ_Close(D$1,$A117)</f>
         <v>2248.0500000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <f>[1]!S_DQ_Close(E$1,$A117)</f>
+        <v>1416.4747</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42849</v>
       </c>
@@ -2431,8 +2902,12 @@
         <f>[1]!S_DQ_Close(D$1,$A118)</f>
         <v>2237.67</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <f>[1]!S_DQ_Close(E$1,$A118)</f>
+        <v>1416.8985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42850</v>
       </c>
@@ -2448,8 +2923,12 @@
         <f>[1]!S_DQ_Close(D$1,$A119)</f>
         <v>2251.39</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <f>[1]!S_DQ_Close(E$1,$A119)</f>
+        <v>1417.0438999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42851</v>
       </c>
@@ -2465,8 +2944,12 @@
         <f>[1]!S_DQ_Close(D$1,$A120)</f>
         <v>2249.84</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <f>[1]!S_DQ_Close(E$1,$A120)</f>
+        <v>1417.1878999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42852</v>
       </c>
@@ -2482,8 +2965,12 @@
         <f>[1]!S_DQ_Close(D$1,$A121)</f>
         <v>2232.7800000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <f>[1]!S_DQ_Close(E$1,$A121)</f>
+        <v>1417.3333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42853</v>
       </c>
@@ -2499,8 +2986,12 @@
         <f>[1]!S_DQ_Close(D$1,$A122)</f>
         <v>2246.85</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <f>[1]!S_DQ_Close(E$1,$A122)</f>
+        <v>1417.4871000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42857</v>
       </c>
@@ -2516,8 +3007,12 @@
         <f>[1]!S_DQ_Close(D$1,$A123)</f>
         <v>2219.88</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <f>[1]!S_DQ_Close(E$1,$A123)</f>
+        <v>1418.0687</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42858</v>
       </c>
@@ -2533,8 +3028,12 @@
         <f>[1]!S_DQ_Close(D$1,$A124)</f>
         <v>2223.81</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <f>[1]!S_DQ_Close(E$1,$A124)</f>
+        <v>1418.2156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42859</v>
       </c>
@@ -2550,8 +3049,12 @@
         <f>[1]!S_DQ_Close(D$1,$A125)</f>
         <v>2159.39</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E125">
+        <f>[1]!S_DQ_Close(E$1,$A125)</f>
+        <v>1418.3598999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42860</v>
       </c>
@@ -2567,8 +3070,12 @@
         <f>[1]!S_DQ_Close(D$1,$A126)</f>
         <v>2178.12</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <f>[1]!S_DQ_Close(E$1,$A126)</f>
+        <v>1418.5041000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42863</v>
       </c>
@@ -2584,8 +3091,12 @@
         <f>[1]!S_DQ_Close(D$1,$A127)</f>
         <v>2175.7600000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <f>[1]!S_DQ_Close(E$1,$A127)</f>
+        <v>1418.9369999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42864</v>
       </c>
@@ -2601,8 +3112,12 @@
         <f>[1]!S_DQ_Close(D$1,$A128)</f>
         <v>2161.2199999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <f>[1]!S_DQ_Close(E$1,$A128)</f>
+        <v>1419.0791999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42865</v>
       </c>
@@ -2618,8 +3133,12 @@
         <f>[1]!S_DQ_Close(D$1,$A129)</f>
         <v>2198.91</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <f>[1]!S_DQ_Close(E$1,$A129)</f>
+        <v>1419.2219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42866</v>
       </c>
@@ -2635,8 +3154,12 @@
         <f>[1]!S_DQ_Close(D$1,$A130)</f>
         <v>2213.7600000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <f>[1]!S_DQ_Close(E$1,$A130)</f>
+        <v>1419.3638000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42867</v>
       </c>
@@ -2652,8 +3175,12 @@
         <f>[1]!S_DQ_Close(D$1,$A131)</f>
         <v>2220.87</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <f>[1]!S_DQ_Close(E$1,$A131)</f>
+        <v>1419.5101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42870</v>
       </c>
@@ -2669,8 +3196,12 @@
         <f>[1]!S_DQ_Close(D$1,$A132)</f>
         <v>2239.39</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <f>[1]!S_DQ_Close(E$1,$A132)</f>
+        <v>1419.9414999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42871</v>
       </c>
@@ -2686,8 +3217,12 @@
         <f>[1]!S_DQ_Close(D$1,$A133)</f>
         <v>2234.39</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <f>[1]!S_DQ_Close(E$1,$A133)</f>
+        <v>1420.0847000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42872</v>
       </c>
@@ -2703,8 +3238,12 @@
         <f>[1]!S_DQ_Close(D$1,$A134)</f>
         <v>2249.56</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <f>[1]!S_DQ_Close(E$1,$A134)</f>
+        <v>1420.2283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42873</v>
       </c>
@@ -2720,8 +3259,12 @@
         <f>[1]!S_DQ_Close(D$1,$A135)</f>
         <v>2248.19</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <f>[1]!S_DQ_Close(E$1,$A135)</f>
+        <v>1420.3724</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42874</v>
       </c>
@@ -2737,8 +3280,12 @@
         <f>[1]!S_DQ_Close(D$1,$A136)</f>
         <v>2288.84</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <f>[1]!S_DQ_Close(E$1,$A136)</f>
+        <v>1420.5224000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42877</v>
       </c>
@@ -2754,8 +3301,12 @@
         <f>[1]!S_DQ_Close(D$1,$A137)</f>
         <v>2304.41</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <f>[1]!S_DQ_Close(E$1,$A137)</f>
+        <v>1420.8157000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42878</v>
       </c>
@@ -2771,8 +3322,12 @@
         <f>[1]!S_DQ_Close(D$1,$A138)</f>
         <v>2300.79</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <f>[1]!S_DQ_Close(E$1,$A138)</f>
+        <v>1420.9631999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42879</v>
       </c>
@@ -2788,8 +3343,12 @@
         <f>[1]!S_DQ_Close(D$1,$A139)</f>
         <v>2294.29</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <f>[1]!S_DQ_Close(E$1,$A139)</f>
+        <v>1421.1088999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42880</v>
       </c>
@@ -2805,8 +3364,12 @@
         <f>[1]!S_DQ_Close(D$1,$A140)</f>
         <v>2242.7399999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <f>[1]!S_DQ_Close(E$1,$A140)</f>
+        <v>1421.2550000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42881</v>
       </c>
@@ -2822,8 +3385,12 @@
         <f>[1]!S_DQ_Close(D$1,$A141)</f>
         <v>2256.83</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <f>[1]!S_DQ_Close(E$1,$A141)</f>
+        <v>1421.4081000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42886</v>
       </c>
@@ -2839,8 +3406,12 @@
         <f>[1]!S_DQ_Close(D$1,$A142)</f>
         <v>2212.33</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <f>[1]!S_DQ_Close(E$1,$A142)</f>
+        <v>1421.8474000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42887</v>
       </c>
@@ -2856,8 +3427,12 @@
         <f>[1]!S_DQ_Close(D$1,$A143)</f>
         <v>2212.33</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <f>[1]!S_DQ_Close(E$1,$A143)</f>
+        <v>1421.9971</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42888</v>
       </c>
@@ -2873,8 +3448,12 @@
         <f>[1]!S_DQ_Close(D$1,$A144)</f>
         <v>2191.87</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <f>[1]!S_DQ_Close(E$1,$A144)</f>
+        <v>1422.1505999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42891</v>
       </c>
@@ -2890,8 +3469,12 @@
         <f>[1]!S_DQ_Close(D$1,$A145)</f>
         <v>2176.73</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <f>[1]!S_DQ_Close(E$1,$A145)</f>
+        <v>1422.4373000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42892</v>
       </c>
@@ -2907,8 +3490,12 @@
         <f>[1]!S_DQ_Close(D$1,$A146)</f>
         <v>2193.3200000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <f>[1]!S_DQ_Close(E$1,$A146)</f>
+        <v>1422.5856000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42893</v>
       </c>
@@ -2924,8 +3511,12 @@
         <f>[1]!S_DQ_Close(D$1,$A147)</f>
         <v>2146.59</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <f>[1]!S_DQ_Close(E$1,$A147)</f>
+        <v>1422.7365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42894</v>
       </c>
@@ -2941,8 +3532,12 @@
         <f>[1]!S_DQ_Close(D$1,$A148)</f>
         <v>2149.4299999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <f>[1]!S_DQ_Close(E$1,$A148)</f>
+        <v>1422.8849</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42895</v>
       </c>
@@ -2958,8 +3553,12 @@
         <f>[1]!S_DQ_Close(D$1,$A149)</f>
         <v>2158.1999999999998</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <f>[1]!S_DQ_Close(E$1,$A149)</f>
+        <v>1423.0396000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42898</v>
       </c>
@@ -2975,8 +3574,12 @@
         <f>[1]!S_DQ_Close(D$1,$A150)</f>
         <v>2147.38</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <f>[1]!S_DQ_Close(E$1,$A150)</f>
+        <v>1423.3259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42899</v>
       </c>
@@ -2992,8 +3595,12 @@
         <f>[1]!S_DQ_Close(D$1,$A151)</f>
         <v>2154.23</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E151">
+        <f>[1]!S_DQ_Close(E$1,$A151)</f>
+        <v>1423.4819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42900</v>
       </c>
@@ -3009,8 +3616,12 @@
         <f>[1]!S_DQ_Close(D$1,$A152)</f>
         <v>2108.77</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <f>[1]!S_DQ_Close(E$1,$A152)</f>
+        <v>1423.6393</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42901</v>
       </c>
@@ -3026,8 +3637,12 @@
         <f>[1]!S_DQ_Close(D$1,$A153)</f>
         <v>2107.59</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <f>[1]!S_DQ_Close(E$1,$A153)</f>
+        <v>1423.7974999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42902</v>
       </c>
@@ -3043,8 +3658,12 @@
         <f>[1]!S_DQ_Close(D$1,$A154)</f>
         <v>2121.15</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E154">
+        <f>[1]!S_DQ_Close(E$1,$A154)</f>
+        <v>1423.9603</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42905</v>
       </c>
@@ -3060,8 +3679,12 @@
         <f>[1]!S_DQ_Close(D$1,$A155)</f>
         <v>2105.1</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E155">
+        <f>[1]!S_DQ_Close(E$1,$A155)</f>
+        <v>1424.434</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42906</v>
       </c>
@@ -3077,8 +3700,12 @@
         <f>[1]!S_DQ_Close(D$1,$A156)</f>
         <v>2080.23</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <f>[1]!S_DQ_Close(E$1,$A156)</f>
+        <v>1424.5965000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42907</v>
       </c>
@@ -3094,8 +3721,12 @@
         <f>[1]!S_DQ_Close(D$1,$A157)</f>
         <v>2054.65</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E157">
+        <f>[1]!S_DQ_Close(E$1,$A157)</f>
+        <v>1424.7588000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42908</v>
       </c>
@@ -3111,8 +3742,12 @@
         <f>[1]!S_DQ_Close(D$1,$A158)</f>
         <v>2053.66</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <f>[1]!S_DQ_Close(E$1,$A158)</f>
+        <v>1424.9190000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42909</v>
       </c>
@@ -3128,8 +3763,12 @@
         <f>[1]!S_DQ_Close(D$1,$A159)</f>
         <v>2061.17</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E159">
+        <f>[1]!S_DQ_Close(E$1,$A159)</f>
+        <v>1425.0878</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42912</v>
       </c>
@@ -3145,8 +3784,12 @@
         <f>[1]!S_DQ_Close(D$1,$A160)</f>
         <v>2071.2600000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E160">
+        <f>[1]!S_DQ_Close(E$1,$A160)</f>
+        <v>1425.5714</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42913</v>
       </c>
@@ -3162,8 +3805,12 @@
         <f>[1]!S_DQ_Close(D$1,$A161)</f>
         <v>2095.48</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E161">
+        <f>[1]!S_DQ_Close(E$1,$A161)</f>
+        <v>1425.7409</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42914</v>
       </c>
@@ -3179,8 +3826,12 @@
         <f>[1]!S_DQ_Close(D$1,$A162)</f>
         <v>2112.81</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E162">
+        <f>[1]!S_DQ_Close(E$1,$A162)</f>
+        <v>1425.9094</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42915</v>
       </c>
@@ -3196,8 +3847,12 @@
         <f>[1]!S_DQ_Close(D$1,$A163)</f>
         <v>2128.7199999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E163">
+        <f>[1]!S_DQ_Close(E$1,$A163)</f>
+        <v>1426.0771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42916</v>
       </c>
@@ -3213,8 +3868,12 @@
         <f>[1]!S_DQ_Close(D$1,$A164)</f>
         <v>2169.81</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E164">
+        <f>[1]!S_DQ_Close(E$1,$A164)</f>
+        <v>1426.2484999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42919</v>
       </c>
@@ -3230,8 +3889,12 @@
         <f>[1]!S_DQ_Close(D$1,$A165)</f>
         <v>2201.15</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E165">
+        <f>[1]!S_DQ_Close(E$1,$A165)</f>
+        <v>1426.7265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42920</v>
       </c>
@@ -3247,8 +3910,12 @@
         <f>[1]!S_DQ_Close(D$1,$A166)</f>
         <v>2201.15</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E166">
+        <f>[1]!S_DQ_Close(E$1,$A166)</f>
+        <v>1426.8889999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42921</v>
       </c>
@@ -3264,8 +3931,12 @@
         <f>[1]!S_DQ_Close(D$1,$A167)</f>
         <v>2155.8000000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E167">
+        <f>[1]!S_DQ_Close(E$1,$A167)</f>
+        <v>1427.0509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42922</v>
       </c>
@@ -3281,8 +3952,12 @@
         <f>[1]!S_DQ_Close(D$1,$A168)</f>
         <v>2163.9699999999998</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E168">
+        <f>[1]!S_DQ_Close(E$1,$A168)</f>
+        <v>1427.2103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42923</v>
       </c>
@@ -3298,8 +3973,12 @@
         <f>[1]!S_DQ_Close(D$1,$A169)</f>
         <v>2130.21</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E169">
+        <f>[1]!S_DQ_Close(E$1,$A169)</f>
+        <v>1427.3713</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42926</v>
       </c>
@@ -3315,8 +3994,12 @@
         <f>[1]!S_DQ_Close(D$1,$A170)</f>
         <v>2139.58</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E170">
+        <f>[1]!S_DQ_Close(E$1,$A170)</f>
+        <v>1427.8408999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42927</v>
       </c>
@@ -3332,8 +4015,12 @@
         <f>[1]!S_DQ_Close(D$1,$A171)</f>
         <v>2160.29</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E171">
+        <f>[1]!S_DQ_Close(E$1,$A171)</f>
+        <v>1427.9984999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42928</v>
       </c>
@@ -3349,8 +4036,12 @@
         <f>[1]!S_DQ_Close(D$1,$A172)</f>
         <v>2161.41</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E172">
+        <f>[1]!S_DQ_Close(E$1,$A172)</f>
+        <v>1428.1546000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42929</v>
       </c>
@@ -3366,8 +4057,12 @@
         <f>[1]!S_DQ_Close(D$1,$A173)</f>
         <v>2163.33</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E173">
+        <f>[1]!S_DQ_Close(E$1,$A173)</f>
+        <v>1428.3105</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42930</v>
       </c>
@@ -3383,8 +4078,12 @@
         <f>[1]!S_DQ_Close(D$1,$A174)</f>
         <v>2182.73</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E174">
+        <f>[1]!S_DQ_Close(E$1,$A174)</f>
+        <v>1428.4721</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42933</v>
       </c>
@@ -3400,8 +4099,12 @@
         <f>[1]!S_DQ_Close(D$1,$A175)</f>
         <v>2173.8000000000002</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E175">
+        <f>[1]!S_DQ_Close(E$1,$A175)</f>
+        <v>1428.94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42934</v>
       </c>
@@ -3417,8 +4120,12 @@
         <f>[1]!S_DQ_Close(D$1,$A176)</f>
         <v>2183.66</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E176">
+        <f>[1]!S_DQ_Close(E$1,$A176)</f>
+        <v>1429.0998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42935</v>
       </c>
@@ -3434,8 +4141,12 @@
         <f>[1]!S_DQ_Close(D$1,$A177)</f>
         <v>2209.02</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E177">
+        <f>[1]!S_DQ_Close(E$1,$A177)</f>
+        <v>1429.258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42936</v>
       </c>
@@ -3451,8 +4162,12 @@
         <f>[1]!S_DQ_Close(D$1,$A178)</f>
         <v>2203.15</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E178">
+        <f>[1]!S_DQ_Close(E$1,$A178)</f>
+        <v>1429.4169999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42937</v>
       </c>
@@ -3468,8 +4183,12 @@
         <f>[1]!S_DQ_Close(D$1,$A179)</f>
         <v>2169.8200000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E179">
+        <f>[1]!S_DQ_Close(E$1,$A179)</f>
+        <v>1429.5775000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42940</v>
       </c>
@@ -3485,8 +4204,12 @@
         <f>[1]!S_DQ_Close(D$1,$A180)</f>
         <v>2170.21</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E180">
+        <f>[1]!S_DQ_Close(E$1,$A180)</f>
+        <v>1430.0483999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>42941</v>
       </c>
@@ -3502,8 +4225,12 @@
         <f>[1]!S_DQ_Close(D$1,$A181)</f>
         <v>2203.21</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E181">
+        <f>[1]!S_DQ_Close(E$1,$A181)</f>
+        <v>1430.2090000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>42942</v>
       </c>
@@ -3519,8 +4246,12 @@
         <f>[1]!S_DQ_Close(D$1,$A182)</f>
         <v>2229.46</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E182">
+        <f>[1]!S_DQ_Close(E$1,$A182)</f>
+        <v>1430.3688</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>42943</v>
       </c>
@@ -3536,8 +4267,12 @@
         <f>[1]!S_DQ_Close(D$1,$A183)</f>
         <v>2244.8200000000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E183">
+        <f>[1]!S_DQ_Close(E$1,$A183)</f>
+        <v>1430.527</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>42944</v>
       </c>
@@ -3553,8 +4288,12 @@
         <f>[1]!S_DQ_Close(D$1,$A184)</f>
         <v>2260.65</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E184">
+        <f>[1]!S_DQ_Close(E$1,$A184)</f>
+        <v>1430.6923999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>42947</v>
       </c>
@@ -3570,8 +4309,12 @@
         <f>[1]!S_DQ_Close(D$1,$A185)</f>
         <v>2269.29</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E185">
+        <f>[1]!S_DQ_Close(E$1,$A185)</f>
+        <v>1431.1578</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>42948</v>
       </c>
@@ -3587,8 +4330,12 @@
         <f>[1]!S_DQ_Close(D$1,$A186)</f>
         <v>2239.5300000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E186">
+        <f>[1]!S_DQ_Close(E$1,$A186)</f>
+        <v>1431.3145</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>42949</v>
       </c>
@@ -3604,8 +4351,12 @@
         <f>[1]!S_DQ_Close(D$1,$A187)</f>
         <v>2256.0100000000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E187">
+        <f>[1]!S_DQ_Close(E$1,$A187)</f>
+        <v>1431.4724000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>42950</v>
       </c>
@@ -3621,8 +4372,12 @@
         <f>[1]!S_DQ_Close(D$1,$A188)</f>
         <v>2240.87</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E188">
+        <f>[1]!S_DQ_Close(E$1,$A188)</f>
+        <v>1431.6306</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>42951</v>
       </c>
@@ -3638,8 +4393,12 @@
         <f>[1]!S_DQ_Close(D$1,$A189)</f>
         <v>2248.75</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E189">
+        <f>[1]!S_DQ_Close(E$1,$A189)</f>
+        <v>1431.7897</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>42954</v>
       </c>
@@ -3655,8 +4414,12 @@
         <f>[1]!S_DQ_Close(D$1,$A190)</f>
         <v>2248.9299999999998</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E190">
+        <f>[1]!S_DQ_Close(E$1,$A190)</f>
+        <v>1432.2509</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>42955</v>
       </c>
@@ -3672,8 +4435,12 @@
         <f>[1]!S_DQ_Close(D$1,$A191)</f>
         <v>2247.9299999999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E191">
+        <f>[1]!S_DQ_Close(E$1,$A191)</f>
+        <v>1432.4077</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>42956</v>
       </c>
@@ -3689,8 +4456,12 @@
         <f>[1]!S_DQ_Close(D$1,$A192)</f>
         <v>2258</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E192">
+        <f>[1]!S_DQ_Close(E$1,$A192)</f>
+        <v>1432.5618999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>42957</v>
       </c>
@@ -3706,8 +4477,12 @@
         <f>[1]!S_DQ_Close(D$1,$A193)</f>
         <v>2227.79</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E193">
+        <f>[1]!S_DQ_Close(E$1,$A193)</f>
+        <v>1432.7155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>42958</v>
       </c>
@@ -3723,8 +4498,12 @@
         <f>[1]!S_DQ_Close(D$1,$A194)</f>
         <v>2232.86</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E194">
+        <f>[1]!S_DQ_Close(E$1,$A194)</f>
+        <v>1432.8722</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>42961</v>
       </c>
@@ -3740,8 +4519,12 @@
         <f>[1]!S_DQ_Close(D$1,$A195)</f>
         <v>2204.0300000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E195">
+        <f>[1]!S_DQ_Close(E$1,$A195)</f>
+        <v>1433.3284000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>42962</v>
       </c>
@@ -3757,8 +4540,12 @@
         <f>[1]!S_DQ_Close(D$1,$A196)</f>
         <v>2196.11</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E196">
+        <f>[1]!S_DQ_Close(E$1,$A196)</f>
+        <v>1433.4818</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>42963</v>
       </c>
@@ -3774,8 +4561,12 @@
         <f>[1]!S_DQ_Close(D$1,$A197)</f>
         <v>2182.39</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E197">
+        <f>[1]!S_DQ_Close(E$1,$A197)</f>
+        <v>1433.6362999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>42964</v>
       </c>
@@ -3791,8 +4582,12 @@
         <f>[1]!S_DQ_Close(D$1,$A198)</f>
         <v>2186.02</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E198">
+        <f>[1]!S_DQ_Close(E$1,$A198)</f>
+        <v>1433.7973</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>42965</v>
       </c>
@@ -3808,8 +4603,12 @@
         <f>[1]!S_DQ_Close(D$1,$A199)</f>
         <v>2219.8000000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E199">
+        <f>[1]!S_DQ_Close(E$1,$A199)</f>
+        <v>1433.9567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>42968</v>
       </c>
@@ -3825,8 +4624,12 @@
         <f>[1]!S_DQ_Close(D$1,$A200)</f>
         <v>2195.62</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E200">
+        <f>[1]!S_DQ_Close(E$1,$A200)</f>
+        <v>1434.4276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>42969</v>
       </c>
@@ -3842,8 +4645,12 @@
         <f>[1]!S_DQ_Close(D$1,$A201)</f>
         <v>2201.1999999999998</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E201">
+        <f>[1]!S_DQ_Close(E$1,$A201)</f>
+        <v>1434.5875000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>42970</v>
       </c>
@@ -3859,8 +4666,12 @@
         <f>[1]!S_DQ_Close(D$1,$A202)</f>
         <v>2216.0700000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E202">
+        <f>[1]!S_DQ_Close(E$1,$A202)</f>
+        <v>1434.7460000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>42971</v>
       </c>
@@ -3876,8 +4687,12 @@
         <f>[1]!S_DQ_Close(D$1,$A203)</f>
         <v>2210.29</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E203">
+        <f>[1]!S_DQ_Close(E$1,$A203)</f>
+        <v>1434.9034999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>42972</v>
       </c>
@@ -3893,8 +4708,12 @@
         <f>[1]!S_DQ_Close(D$1,$A204)</f>
         <v>2210.77</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E204">
+        <f>[1]!S_DQ_Close(E$1,$A204)</f>
+        <v>1435.0646999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>42975</v>
       </c>
@@ -3910,8 +4729,12 @@
         <f>[1]!S_DQ_Close(D$1,$A205)</f>
         <v>2198.73</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E205">
+        <f>[1]!S_DQ_Close(E$1,$A205)</f>
+        <v>1435.5365999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>42976</v>
       </c>
@@ -3927,8 +4750,12 @@
         <f>[1]!S_DQ_Close(D$1,$A206)</f>
         <v>2201.79</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E206">
+        <f>[1]!S_DQ_Close(E$1,$A206)</f>
+        <v>1435.6950999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>42977</v>
       </c>
@@ -3944,8 +4771,12 @@
         <f>[1]!S_DQ_Close(D$1,$A207)</f>
         <v>2192.39</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E207">
+        <f>[1]!S_DQ_Close(E$1,$A207)</f>
+        <v>1435.855</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>42978</v>
       </c>
@@ -3961,8 +4792,12 @@
         <f>[1]!S_DQ_Close(D$1,$A208)</f>
         <v>2251.67</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E208">
+        <f>[1]!S_DQ_Close(E$1,$A208)</f>
+        <v>1436.0135</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>42979</v>
       </c>
@@ -3978,8 +4813,12 @@
         <f>[1]!S_DQ_Close(D$1,$A209)</f>
         <v>2253.9299999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E209">
+        <f>[1]!S_DQ_Close(E$1,$A209)</f>
+        <v>1436.1785</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>42982</v>
       </c>
@@ -3995,8 +4834,12 @@
         <f>[1]!S_DQ_Close(D$1,$A210)</f>
         <v>2253.9299999999998</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E210">
+        <f>[1]!S_DQ_Close(E$1,$A210)</f>
+        <v>1436.652</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>42983</v>
       </c>
@@ -4012,8 +4855,12 @@
         <f>[1]!S_DQ_Close(D$1,$A211)</f>
         <v>2275.14</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E211">
+        <f>[1]!S_DQ_Close(E$1,$A211)</f>
+        <v>1436.8117</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>42984</v>
       </c>
@@ -4029,8 +4876,12 @@
         <f>[1]!S_DQ_Close(D$1,$A212)</f>
         <v>2289.56</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E212">
+        <f>[1]!S_DQ_Close(E$1,$A212)</f>
+        <v>1436.9695999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>42985</v>
       </c>
@@ -4046,8 +4897,12 @@
         <f>[1]!S_DQ_Close(D$1,$A213)</f>
         <v>2289.0700000000002</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E213">
+        <f>[1]!S_DQ_Close(E$1,$A213)</f>
+        <v>1437.1270999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>42986</v>
       </c>
@@ -4063,8 +4918,12 @@
         <f>[1]!S_DQ_Close(D$1,$A214)</f>
         <v>2258.33</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E214">
+        <f>[1]!S_DQ_Close(E$1,$A214)</f>
+        <v>1437.2872</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>42989</v>
       </c>
@@ -4080,8 +4939,12 @@
         <f>[1]!S_DQ_Close(D$1,$A215)</f>
         <v>2263.12</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E215">
+        <f>[1]!S_DQ_Close(E$1,$A215)</f>
+        <v>1437.7596000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>42990</v>
       </c>
@@ -4097,8 +4960,12 @@
         <f>[1]!S_DQ_Close(D$1,$A216)</f>
         <v>2265.0500000000002</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E216">
+        <f>[1]!S_DQ_Close(E$1,$A216)</f>
+        <v>1437.9188999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>42991</v>
       </c>
@@ -4114,8 +4981,12 @@
         <f>[1]!S_DQ_Close(D$1,$A217)</f>
         <v>2286.27</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E217">
+        <f>[1]!S_DQ_Close(E$1,$A217)</f>
+        <v>1438.0789</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>42992</v>
       </c>
@@ -4131,8 +5002,12 @@
         <f>[1]!S_DQ_Close(D$1,$A218)</f>
         <v>2295.85</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E218">
+        <f>[1]!S_DQ_Close(E$1,$A218)</f>
+        <v>1438.2402999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>42993</v>
       </c>
@@ -4148,8 +5023,12 @@
         <f>[1]!S_DQ_Close(D$1,$A219)</f>
         <v>2305.63</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E219">
+        <f>[1]!S_DQ_Close(E$1,$A219)</f>
+        <v>1438.403</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>42996</v>
       </c>
@@ -4165,8 +5044,12 @@
         <f>[1]!S_DQ_Close(D$1,$A220)</f>
         <v>2300.2399999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E220">
+        <f>[1]!S_DQ_Close(E$1,$A220)</f>
+        <v>1438.8729000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>42997</v>
       </c>
@@ -4182,8 +5065,12 @@
         <f>[1]!S_DQ_Close(D$1,$A221)</f>
         <v>2291.9699999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E221">
+        <f>[1]!S_DQ_Close(E$1,$A221)</f>
+        <v>1439.0315000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>42998</v>
       </c>
@@ -4199,8 +5086,12 @@
         <f>[1]!S_DQ_Close(D$1,$A222)</f>
         <v>2322.2800000000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E222">
+        <f>[1]!S_DQ_Close(E$1,$A222)</f>
+        <v>1439.19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>42999</v>
       </c>
@@ -4216,8 +5107,12 @@
         <f>[1]!S_DQ_Close(D$1,$A223)</f>
         <v>2314.06</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E223">
+        <f>[1]!S_DQ_Close(E$1,$A223)</f>
+        <v>1439.3496</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>43000</v>
       </c>
@@ -4233,8 +5128,12 @@
         <f>[1]!S_DQ_Close(D$1,$A224)</f>
         <v>2318.58</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E224">
+        <f>[1]!S_DQ_Close(E$1,$A224)</f>
+        <v>1439.5130999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>43003</v>
       </c>
@@ -4250,8 +5149,12 @@
         <f>[1]!S_DQ_Close(D$1,$A225)</f>
         <v>2354.9699999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E225">
+        <f>[1]!S_DQ_Close(E$1,$A225)</f>
+        <v>1439.9869000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>43004</v>
       </c>
@@ -4267,8 +5170,12 @@
         <f>[1]!S_DQ_Close(D$1,$A226)</f>
         <v>2339.44</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E226">
+        <f>[1]!S_DQ_Close(E$1,$A226)</f>
+        <v>1440.1477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>43005</v>
       </c>
@@ -4284,8 +5191,12 @@
         <f>[1]!S_DQ_Close(D$1,$A227)</f>
         <v>2343.5500000000002</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E227">
+        <f>[1]!S_DQ_Close(E$1,$A227)</f>
+        <v>1440.3071</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>43006</v>
       </c>
@@ -4301,8 +5212,12 @@
         <f>[1]!S_DQ_Close(D$1,$A228)</f>
         <v>2331.59</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E228">
+        <f>[1]!S_DQ_Close(E$1,$A228)</f>
+        <v>1440.4685999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>43007</v>
       </c>
@@ -4318,8 +5233,12 @@
         <f>[1]!S_DQ_Close(D$1,$A229)</f>
         <v>2326.46</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E229">
+        <f>[1]!S_DQ_Close(E$1,$A229)</f>
+        <v>1440.6405999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>43017</v>
       </c>
@@ -4335,8 +5254,12 @@
         <f>[1]!S_DQ_Close(D$1,$A230)</f>
         <v>2284.7800000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E230">
+        <f>[1]!S_DQ_Close(E$1,$A230)</f>
+        <v>1442.2246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>43018</v>
       </c>
@@ -4352,8 +5275,12 @@
         <f>[1]!S_DQ_Close(D$1,$A231)</f>
         <v>2318.9899999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E231">
+        <f>[1]!S_DQ_Close(E$1,$A231)</f>
+        <v>1442.3868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>43019</v>
       </c>
@@ -4369,8 +5296,12 @@
         <f>[1]!S_DQ_Close(D$1,$A232)</f>
         <v>2324.63</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E232">
+        <f>[1]!S_DQ_Close(E$1,$A232)</f>
+        <v>1442.5473</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>43020</v>
       </c>
@@ -4386,8 +5317,12 @@
         <f>[1]!S_DQ_Close(D$1,$A233)</f>
         <v>2314.7800000000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E233">
+        <f>[1]!S_DQ_Close(E$1,$A233)</f>
+        <v>1442.7072000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>43021</v>
       </c>
@@ -4403,8 +5338,12 @@
         <f>[1]!S_DQ_Close(D$1,$A234)</f>
         <v>2342.19</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E234">
+        <f>[1]!S_DQ_Close(E$1,$A234)</f>
+        <v>1442.8667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>43024</v>
       </c>
@@ -4420,8 +5359,12 @@
         <f>[1]!S_DQ_Close(D$1,$A235)</f>
         <v>2353.1999999999998</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E235">
+        <f>[1]!S_DQ_Close(E$1,$A235)</f>
+        <v>1443.3362</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>43025</v>
       </c>
@@ -4437,8 +5380,12 @@
         <f>[1]!S_DQ_Close(D$1,$A236)</f>
         <v>2345.04</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E236">
+        <f>[1]!S_DQ_Close(E$1,$A236)</f>
+        <v>1443.4953</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>43026</v>
       </c>
@@ -4454,8 +5401,12 @@
         <f>[1]!S_DQ_Close(D$1,$A237)</f>
         <v>2345.5700000000002</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E237">
+        <f>[1]!S_DQ_Close(E$1,$A237)</f>
+        <v>1443.6523</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>43027</v>
       </c>
@@ -4471,8 +5422,12 @@
         <f>[1]!S_DQ_Close(D$1,$A238)</f>
         <v>2332.31</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E238">
+        <f>[1]!S_DQ_Close(E$1,$A238)</f>
+        <v>1443.808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>43028</v>
       </c>
@@ -4488,8 +5443,12 @@
         <f>[1]!S_DQ_Close(D$1,$A239)</f>
         <v>2340.2600000000002</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E239">
+        <f>[1]!S_DQ_Close(E$1,$A239)</f>
+        <v>1443.9658999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>43031</v>
       </c>
@@ -4505,8 +5464,12 @@
         <f>[1]!S_DQ_Close(D$1,$A240)</f>
         <v>2343.7199999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E240">
+        <f>[1]!S_DQ_Close(E$1,$A240)</f>
+        <v>1444.4265</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>43032</v>
       </c>
@@ -4522,8 +5485,12 @@
         <f>[1]!S_DQ_Close(D$1,$A241)</f>
         <v>2366</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E241">
+        <f>[1]!S_DQ_Close(E$1,$A241)</f>
+        <v>1444.5834</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>43033</v>
       </c>
@@ -4539,8 +5506,12 @@
         <f>[1]!S_DQ_Close(D$1,$A242)</f>
         <v>2364.23</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E242">
+        <f>[1]!S_DQ_Close(E$1,$A242)</f>
+        <v>1444.7393</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>43034</v>
       </c>
@@ -4556,8 +5527,12 @@
         <f>[1]!S_DQ_Close(D$1,$A243)</f>
         <v>2376.52</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E243">
+        <f>[1]!S_DQ_Close(E$1,$A243)</f>
+        <v>1444.8951999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>43035</v>
       </c>
@@ -4573,8 +5548,12 @@
         <f>[1]!S_DQ_Close(D$1,$A244)</f>
         <v>2396.9299999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E244">
+        <f>[1]!S_DQ_Close(E$1,$A244)</f>
+        <v>1445.0532000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>43038</v>
       </c>
@@ -4590,8 +5569,12 @@
         <f>[1]!S_DQ_Close(D$1,$A245)</f>
         <v>2407.4299999999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E245">
+        <f>[1]!S_DQ_Close(E$1,$A245)</f>
+        <v>1445.5182</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>43039</v>
       </c>
@@ -4607,8 +5590,12 @@
         <f>[1]!S_DQ_Close(D$1,$A246)</f>
         <v>2415.2800000000002</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E246">
+        <f>[1]!S_DQ_Close(E$1,$A246)</f>
+        <v>1445.6749</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>43040</v>
       </c>
@@ -4624,8 +5611,12 @@
         <f>[1]!S_DQ_Close(D$1,$A247)</f>
         <v>2415.48</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E247">
+        <f>[1]!S_DQ_Close(E$1,$A247)</f>
+        <v>1445.8329000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>43041</v>
       </c>
@@ -4641,8 +5632,12 @@
         <f>[1]!S_DQ_Close(D$1,$A248)</f>
         <v>2418.71</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E248">
+        <f>[1]!S_DQ_Close(E$1,$A248)</f>
+        <v>1445.9918</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>43042</v>
       </c>
@@ -4658,8 +5653,12 @@
         <f>[1]!S_DQ_Close(D$1,$A249)</f>
         <v>2447.2399999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E249">
+        <f>[1]!S_DQ_Close(E$1,$A249)</f>
+        <v>1446.1513</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>43045</v>
       </c>
@@ -4675,8 +5674,12 @@
         <f>[1]!S_DQ_Close(D$1,$A250)</f>
         <v>2498.9499999999998</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E250">
+        <f>[1]!S_DQ_Close(E$1,$A250)</f>
+        <v>1446.6170999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>43046</v>
       </c>
@@ -4692,8 +5695,12 @@
         <f>[1]!S_DQ_Close(D$1,$A251)</f>
         <v>2483.86</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E251">
+        <f>[1]!S_DQ_Close(E$1,$A251)</f>
+        <v>1446.7737</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>43047</v>
       </c>
@@ -4709,8 +5716,12 @@
         <f>[1]!S_DQ_Close(D$1,$A252)</f>
         <v>2478.69</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E252">
+        <f>[1]!S_DQ_Close(E$1,$A252)</f>
+        <v>1446.9285</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>43048</v>
       </c>
@@ -4726,8 +5737,12 @@
         <f>[1]!S_DQ_Close(D$1,$A253)</f>
         <v>2484.84</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E253">
+        <f>[1]!S_DQ_Close(E$1,$A253)</f>
+        <v>1447.0845999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>43049</v>
       </c>
@@ -4743,8 +5758,12 @@
         <f>[1]!S_DQ_Close(D$1,$A254)</f>
         <v>2476.75</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E254">
+        <f>[1]!S_DQ_Close(E$1,$A254)</f>
+        <v>1447.2424000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>43052</v>
       </c>
@@ -4760,8 +5779,12 @@
         <f>[1]!S_DQ_Close(D$1,$A255)</f>
         <v>2471.8200000000002</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E255">
+        <f>[1]!S_DQ_Close(E$1,$A255)</f>
+        <v>1447.7068999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>43053</v>
       </c>
@@ -4777,8 +5800,12 @@
         <f>[1]!S_DQ_Close(D$1,$A256)</f>
         <v>2433.33</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E256">
+        <f>[1]!S_DQ_Close(E$1,$A256)</f>
+        <v>1447.8625</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>43054</v>
       </c>
@@ -4794,8 +5821,12 @@
         <f>[1]!S_DQ_Close(D$1,$A257)</f>
         <v>2426.4</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E257">
+        <f>[1]!S_DQ_Close(E$1,$A257)</f>
+        <v>1448.0197000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>43055</v>
       </c>
@@ -4811,8 +5842,12 @@
         <f>[1]!S_DQ_Close(D$1,$A258)</f>
         <v>2415.67</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E258">
+        <f>[1]!S_DQ_Close(E$1,$A258)</f>
+        <v>1448.1768999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>43056</v>
       </c>
@@ -4828,8 +5863,12 @@
         <f>[1]!S_DQ_Close(D$1,$A259)</f>
         <v>2453.84</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E259">
+        <f>[1]!S_DQ_Close(E$1,$A259)</f>
+        <v>1448.3389</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>43059</v>
       </c>
@@ -4845,8 +5884,12 @@
         <f>[1]!S_DQ_Close(D$1,$A260)</f>
         <v>2439.52</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E260">
+        <f>[1]!S_DQ_Close(E$1,$A260)</f>
+        <v>1448.8135</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>43060</v>
       </c>
@@ -4862,8 +5905,12 @@
         <f>[1]!S_DQ_Close(D$1,$A261)</f>
         <v>2450.21</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E261">
+        <f>[1]!S_DQ_Close(E$1,$A261)</f>
+        <v>1448.9766</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>43061</v>
       </c>
@@ -4879,8 +5926,12 @@
         <f>[1]!S_DQ_Close(D$1,$A262)</f>
         <v>2475.44</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E262">
+        <f>[1]!S_DQ_Close(E$1,$A262)</f>
+        <v>1449.1361999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>43062</v>
       </c>
@@ -4896,8 +5947,12 @@
         <f>[1]!S_DQ_Close(D$1,$A263)</f>
         <v>2475.44</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E263">
+        <f>[1]!S_DQ_Close(E$1,$A263)</f>
+        <v>1449.2961</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>43063</v>
       </c>
@@ -4913,8 +5968,12 @@
         <f>[1]!S_DQ_Close(D$1,$A264)</f>
         <v>2488.37</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E264">
+        <f>[1]!S_DQ_Close(E$1,$A264)</f>
+        <v>1449.4593</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>43066</v>
       </c>
@@ -4930,8 +5989,12 @@
         <f>[1]!S_DQ_Close(D$1,$A265)</f>
         <v>2479.36</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E265">
+        <f>[1]!S_DQ_Close(E$1,$A265)</f>
+        <v>1449.9396999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>43067</v>
       </c>
@@ -4947,8 +6010,12 @@
         <f>[1]!S_DQ_Close(D$1,$A266)</f>
         <v>2474.62</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E266">
+        <f>[1]!S_DQ_Close(E$1,$A266)</f>
+        <v>1450.1054999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>43068</v>
       </c>
@@ -4964,8 +6031,12 @@
         <f>[1]!S_DQ_Close(D$1,$A267)</f>
         <v>2459.29</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E267">
+        <f>[1]!S_DQ_Close(E$1,$A267)</f>
+        <v>1450.2671</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>43069</v>
       </c>
@@ -4981,8 +6052,12 @@
         <f>[1]!S_DQ_Close(D$1,$A268)</f>
         <v>2448.66</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E268">
+        <f>[1]!S_DQ_Close(E$1,$A268)</f>
+        <v>1450.4295999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>43070</v>
       </c>
@@ -4998,8 +6073,12 @@
         <f>[1]!S_DQ_Close(D$1,$A269)</f>
         <v>2478.92</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E269">
+        <f>[1]!S_DQ_Close(E$1,$A269)</f>
+        <v>1450.5953</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>43073</v>
       </c>
@@ -5015,8 +6094,12 @@
         <f>[1]!S_DQ_Close(D$1,$A270)</f>
         <v>2444.9699999999998</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E270">
+        <f>[1]!S_DQ_Close(E$1,$A270)</f>
+        <v>1451.0866000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>43074</v>
       </c>
@@ -5032,8 +6115,12 @@
         <f>[1]!S_DQ_Close(D$1,$A271)</f>
         <v>2440.36</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E271">
+        <f>[1]!S_DQ_Close(E$1,$A271)</f>
+        <v>1451.2498000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>43075</v>
       </c>
@@ -5049,8 +6136,12 @@
         <f>[1]!S_DQ_Close(D$1,$A272)</f>
         <v>2393.65</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E272">
+        <f>[1]!S_DQ_Close(E$1,$A272)</f>
+        <v>1451.4145000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>43076</v>
       </c>
@@ -5066,8 +6157,12 @@
         <f>[1]!S_DQ_Close(D$1,$A273)</f>
         <v>2405.2399999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E273">
+        <f>[1]!S_DQ_Close(E$1,$A273)</f>
+        <v>1451.5776000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>43077</v>
       </c>
@@ -5083,8 +6178,12 @@
         <f>[1]!S_DQ_Close(D$1,$A274)</f>
         <v>2426.09</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E274">
+        <f>[1]!S_DQ_Close(E$1,$A274)</f>
+        <v>1451.7429999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>43080</v>
       </c>
@@ -5100,8 +6199,12 @@
         <f>[1]!S_DQ_Close(D$1,$A275)</f>
         <v>2444.38</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E275">
+        <f>[1]!S_DQ_Close(E$1,$A275)</f>
+        <v>1452.2325000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>43081</v>
       </c>
@@ -5117,8 +6220,12 @@
         <f>[1]!S_DQ_Close(D$1,$A276)</f>
         <v>2416.37</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E276">
+        <f>[1]!S_DQ_Close(E$1,$A276)</f>
+        <v>1452.3994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>43082</v>
       </c>
@@ -5134,8 +6241,12 @@
         <f>[1]!S_DQ_Close(D$1,$A277)</f>
         <v>2401.52</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E277">
+        <f>[1]!S_DQ_Close(E$1,$A277)</f>
+        <v>1452.5663999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>43083</v>
       </c>
@@ -5151,8 +6262,12 @@
         <f>[1]!S_DQ_Close(D$1,$A278)</f>
         <v>2418.54</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E278">
+        <f>[1]!S_DQ_Close(E$1,$A278)</f>
+        <v>1452.7321999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>43084</v>
       </c>
@@ -5168,8 +6283,12 @@
         <f>[1]!S_DQ_Close(D$1,$A279)</f>
         <v>2424.0500000000002</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E279">
+        <f>[1]!S_DQ_Close(E$1,$A279)</f>
+        <v>1452.9004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>43087</v>
       </c>
@@ -5185,8 +6304,12 @@
         <f>[1]!S_DQ_Close(D$1,$A280)</f>
         <v>2432.4299999999998</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E280">
+        <f>[1]!S_DQ_Close(E$1,$A280)</f>
+        <v>1453.3976</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>43088</v>
       </c>
@@ -5202,8 +6325,12 @@
         <f>[1]!S_DQ_Close(D$1,$A281)</f>
         <v>2442.44</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E281">
+        <f>[1]!S_DQ_Close(E$1,$A281)</f>
+        <v>1453.5648000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>43089</v>
       </c>
@@ -5219,8 +6346,12 @@
         <f>[1]!S_DQ_Close(D$1,$A282)</f>
         <v>2460.7800000000002</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E282">
+        <f>[1]!S_DQ_Close(E$1,$A282)</f>
+        <v>1453.7354</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>43090</v>
       </c>
@@ -5236,8 +6367,12 @@
         <f>[1]!S_DQ_Close(D$1,$A283)</f>
         <v>2471.36</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E283">
+        <f>[1]!S_DQ_Close(E$1,$A283)</f>
+        <v>1453.9046000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>43091</v>
       </c>
@@ -5253,30 +6388,282 @@
         <f>[1]!S_DQ_Close(D$1,$A284)</f>
         <v>2480.34</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E284">
+        <f>[1]!S_DQ_Close(E$1,$A284)</f>
+        <v>1454.0788</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>43094</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B285">
+        <f>[1]!S_DQ_Close(B$1,$A285)</f>
+        <v>4403.1725999999999</v>
+      </c>
+      <c r="C285">
+        <f>[1]!S_DQ_Close(C$1,$A285)</f>
+        <v>173.3974</v>
+      </c>
+      <c r="D285">
+        <f>[1]!S_DQ_Close(D$1,$A285)</f>
+        <v>2480.34</v>
+      </c>
+      <c r="E285">
+        <f>[1]!S_DQ_Close(E$1,$A285)</f>
+        <v>1454.5887</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>43095</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B286">
+        <f>[1]!S_DQ_Close(B$1,$A286)</f>
+        <v>4419.308</v>
+      </c>
+      <c r="C286">
+        <f>[1]!S_DQ_Close(C$1,$A286)</f>
+        <v>173.36250000000001</v>
+      </c>
+      <c r="D286">
+        <f>[1]!S_DQ_Close(D$1,$A286)</f>
+        <v>2526.4699999999998</v>
+      </c>
+      <c r="E286">
+        <f>[1]!S_DQ_Close(E$1,$A286)</f>
+        <v>1454.7625</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>43096</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B287">
+        <f>[1]!S_DQ_Close(B$1,$A287)</f>
+        <v>4360.2867999999999</v>
+      </c>
+      <c r="C287">
+        <f>[1]!S_DQ_Close(C$1,$A287)</f>
+        <v>173.3107</v>
+      </c>
+      <c r="D287">
+        <f>[1]!S_DQ_Close(D$1,$A287)</f>
+        <v>2528.46</v>
+      </c>
+      <c r="E287">
+        <f>[1]!S_DQ_Close(E$1,$A287)</f>
+        <v>1454.9384</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>43097</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B288">
+        <f>[1]!S_DQ_Close(B$1,$A288)</f>
+        <v>4388.3712999999998</v>
+      </c>
+      <c r="C288">
+        <f>[1]!S_DQ_Close(C$1,$A288)</f>
+        <v>173.33279999999999</v>
+      </c>
+      <c r="D288">
+        <f>[1]!S_DQ_Close(D$1,$A288)</f>
+        <v>2541.96</v>
+      </c>
+      <c r="E288">
+        <f>[1]!S_DQ_Close(E$1,$A288)</f>
+        <v>1455.1157000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>43098</v>
+      </c>
+      <c r="B289">
+        <f>[1]!S_DQ_Close(B$1,$A289)</f>
+        <v>4406.6233000000002</v>
+      </c>
+      <c r="C289">
+        <f>[1]!S_DQ_Close(C$1,$A289)</f>
+        <v>173.40379999999999</v>
+      </c>
+      <c r="D289">
+        <f>[1]!S_DQ_Close(D$1,$A289)</f>
+        <v>2556.71</v>
+      </c>
+      <c r="E289">
+        <f>[1]!S_DQ_Close(E$1,$A289)</f>
+        <v>1455.2959000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B290">
+        <f>[1]!S_DQ_Close(B$1,$A290)</f>
+        <v>4467.2790999999997</v>
+      </c>
+      <c r="C290">
+        <f>[1]!S_DQ_Close(C$1,$A290)</f>
+        <v>173.5531</v>
+      </c>
+      <c r="D290">
+        <f>[1]!S_DQ_Close(D$1,$A290)</f>
+        <v>2558.73</v>
+      </c>
+      <c r="E290">
+        <f>[1]!S_DQ_Close(E$1,$A290)</f>
+        <v>1456.0220999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B291">
+        <f>[1]!S_DQ_Close(B$1,$A291)</f>
+        <v>4496.9880000000003</v>
+      </c>
+      <c r="C291">
+        <f>[1]!S_DQ_Close(C$1,$A291)</f>
+        <v>173.58279999999999</v>
+      </c>
+      <c r="D291">
+        <f>[1]!S_DQ_Close(D$1,$A291)</f>
+        <v>2584.42</v>
+      </c>
+      <c r="E291">
+        <f>[1]!S_DQ_Close(E$1,$A291)</f>
+        <v>1456.2021999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" s="1">
+        <v>43104</v>
+      </c>
+      <c r="B292">
+        <f>[1]!S_DQ_Close(B$1,$A292)</f>
+        <v>4516.4508999999998</v>
+      </c>
+      <c r="C292">
+        <f>[1]!S_DQ_Close(C$1,$A292)</f>
+        <v>173.5471</v>
+      </c>
+      <c r="D292">
+        <f>[1]!S_DQ_Close(D$1,$A292)</f>
+        <v>2588.4899999999998</v>
+      </c>
+      <c r="E292">
+        <f>[1]!S_DQ_Close(E$1,$A292)</f>
+        <v>1456.3802000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" s="1">
+        <v>43105</v>
+      </c>
+      <c r="B293">
+        <f>[1]!S_DQ_Close(B$1,$A293)</f>
+        <v>4524.4134999999997</v>
+      </c>
+      <c r="C293">
+        <f>[1]!S_DQ_Close(C$1,$A293)</f>
+        <v>173.67089999999999</v>
+      </c>
+      <c r="D293">
+        <f>[1]!S_DQ_Close(D$1,$A293)</f>
+        <v>2565.06</v>
+      </c>
+      <c r="E293">
+        <f>[1]!S_DQ_Close(E$1,$A293)</f>
+        <v>1456.5571</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B294">
+        <f>[1]!S_DQ_Close(B$1,$A294)</f>
+        <v>4547.0282999999999</v>
+      </c>
+      <c r="C294">
+        <f>[1]!S_DQ_Close(C$1,$A294)</f>
+        <v>173.8006</v>
+      </c>
+      <c r="D294">
+        <f>[1]!S_DQ_Close(D$1,$A294)</f>
+        <v>2565.1799999999998</v>
+      </c>
+      <c r="E294">
+        <f>[1]!S_DQ_Close(E$1,$A294)</f>
+        <v>1457.0725</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" s="1">
+        <v>43109</v>
+      </c>
+      <c r="B295">
+        <f>[1]!S_DQ_Close(B$1,$A295)</f>
+        <v>4570.4453000000003</v>
+      </c>
+      <c r="C295">
+        <f>[1]!S_DQ_Close(C$1,$A295)</f>
+        <v>173.85900000000001</v>
+      </c>
+      <c r="D295">
+        <f>[1]!S_DQ_Close(D$1,$A295)</f>
+        <v>2592.36</v>
+      </c>
+      <c r="E295">
+        <f>[1]!S_DQ_Close(E$1,$A295)</f>
+        <v>1457.2464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A296" s="1">
+        <v>43110</v>
+      </c>
+      <c r="B296">
+        <f>[1]!S_DQ_Close(B$1,$A296)</f>
+        <v>4578.0281999999997</v>
+      </c>
+      <c r="C296">
+        <f>[1]!S_DQ_Close(C$1,$A296)</f>
+        <v>173.75649999999999</v>
+      </c>
+      <c r="D296">
+        <f>[1]!S_DQ_Close(D$1,$A296)</f>
+        <v>2604.75</v>
+      </c>
+      <c r="E296">
+        <f>[1]!S_DQ_Close(E$1,$A296)</f>
+        <v>1457.4182000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A297" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B297">
+        <f>[1]!S_DQ_Close(B$1,$A297)</f>
+        <v>4579.9314000000004</v>
+      </c>
+      <c r="C297">
+        <f>[1]!S_DQ_Close(C$1,$A297)</f>
+        <v>173.6678</v>
+      </c>
+      <c r="D297">
+        <f>[1]!S_DQ_Close(D$1,$A297)</f>
+        <v>2610.35</v>
+      </c>
+      <c r="E297">
+        <f>[1]!S_DQ_Close(E$1,$A297)</f>
+        <v>1457.4182000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +6676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5301,10 +6688,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">

--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("2016-11-01","2018-01-11","cols=1;rows=296")</f>
+        <f>[1]!TDays("2016-11-01","2018-01-26","cols=1;rows=307")</f>
         <v>42675</v>
       </c>
       <c r="B2">
@@ -6663,7 +6663,238 @@
       </c>
       <c r="E297">
         <f>[1]!S_DQ_Close(E$1,$A297)</f>
-        <v>1457.4182000000001</v>
+        <v>1457.5877</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A298" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B298">
+        <f>[1]!S_DQ_Close(B$1,$A298)</f>
+        <v>4590.6747999999998</v>
+      </c>
+      <c r="C298">
+        <f>[1]!S_DQ_Close(C$1,$A298)</f>
+        <v>173.70769999999999</v>
+      </c>
+      <c r="D298">
+        <f>[1]!S_DQ_Close(D$1,$A298)</f>
+        <v>2623.03</v>
+      </c>
+      <c r="E298">
+        <f>[1]!S_DQ_Close(E$1,$A298)</f>
+        <v>1457.7599</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A299" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B299">
+        <f>[1]!S_DQ_Close(B$1,$A299)</f>
+        <v>4563.8634000000002</v>
+      </c>
+      <c r="C299">
+        <f>[1]!S_DQ_Close(C$1,$A299)</f>
+        <v>173.66560000000001</v>
+      </c>
+      <c r="D299">
+        <f>[1]!S_DQ_Close(D$1,$A299)</f>
+        <v>2623.03</v>
+      </c>
+      <c r="E299">
+        <f>[1]!S_DQ_Close(E$1,$A299)</f>
+        <v>1458.2632000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A300" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B300">
+        <f>[1]!S_DQ_Close(B$1,$A300)</f>
+        <v>4599.4961999999996</v>
+      </c>
+      <c r="C300">
+        <f>[1]!S_DQ_Close(C$1,$A300)</f>
+        <v>173.68639999999999</v>
+      </c>
+      <c r="D300">
+        <f>[1]!S_DQ_Close(D$1,$A300)</f>
+        <v>2609.9899999999998</v>
+      </c>
+      <c r="E300">
+        <f>[1]!S_DQ_Close(E$1,$A300)</f>
+        <v>1458.4326000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A301" s="1">
+        <v>43117</v>
+      </c>
+      <c r="B301">
+        <f>[1]!S_DQ_Close(B$1,$A301)</f>
+        <v>4584.9161000000004</v>
+      </c>
+      <c r="C301">
+        <f>[1]!S_DQ_Close(C$1,$A301)</f>
+        <v>173.65129999999999</v>
+      </c>
+      <c r="D301">
+        <f>[1]!S_DQ_Close(D$1,$A301)</f>
+        <v>2620.69</v>
+      </c>
+      <c r="E301">
+        <f>[1]!S_DQ_Close(E$1,$A301)</f>
+        <v>1458.6027999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A302" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B302">
+        <f>[1]!S_DQ_Close(B$1,$A302)</f>
+        <v>4607.2825999999995</v>
+      </c>
+      <c r="C302">
+        <f>[1]!S_DQ_Close(C$1,$A302)</f>
+        <v>173.58199999999999</v>
+      </c>
+      <c r="D302">
+        <f>[1]!S_DQ_Close(D$1,$A302)</f>
+        <v>2623.02</v>
+      </c>
+      <c r="E302">
+        <f>[1]!S_DQ_Close(E$1,$A302)</f>
+        <v>1458.7731000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B303">
+        <f>[1]!S_DQ_Close(B$1,$A303)</f>
+        <v>4615.8868000000002</v>
+      </c>
+      <c r="C303">
+        <f>[1]!S_DQ_Close(C$1,$A303)</f>
+        <v>173.61670000000001</v>
+      </c>
+      <c r="D303">
+        <f>[1]!S_DQ_Close(D$1,$A303)</f>
+        <v>2607.1999999999998</v>
+      </c>
+      <c r="E303">
+        <f>[1]!S_DQ_Close(E$1,$A303)</f>
+        <v>1458.9471000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B304">
+        <f>[1]!S_DQ_Close(B$1,$A304)</f>
+        <v>4671.0963000000002</v>
+      </c>
+      <c r="C304">
+        <f>[1]!S_DQ_Close(C$1,$A304)</f>
+        <v>173.70240000000001</v>
+      </c>
+      <c r="D304">
+        <f>[1]!S_DQ_Close(D$1,$A304)</f>
+        <v>2618.9499999999998</v>
+      </c>
+      <c r="E304">
+        <f>[1]!S_DQ_Close(E$1,$A304)</f>
+        <v>1459.4563000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <v>43123</v>
+      </c>
+      <c r="B305">
+        <f>[1]!S_DQ_Close(B$1,$A305)</f>
+        <v>4709.5632999999998</v>
+      </c>
+      <c r="C305">
+        <f>[1]!S_DQ_Close(C$1,$A305)</f>
+        <v>173.7465</v>
+      </c>
+      <c r="D305">
+        <f>[1]!S_DQ_Close(D$1,$A305)</f>
+        <v>2638.28</v>
+      </c>
+      <c r="E305">
+        <f>[1]!S_DQ_Close(E$1,$A305)</f>
+        <v>1459.6266000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <v>43124</v>
+      </c>
+      <c r="B306">
+        <f>[1]!S_DQ_Close(B$1,$A306)</f>
+        <v>4722.6976999999997</v>
+      </c>
+      <c r="C306">
+        <f>[1]!S_DQ_Close(C$1,$A306)</f>
+        <v>173.79130000000001</v>
+      </c>
+      <c r="D306">
+        <f>[1]!S_DQ_Close(D$1,$A306)</f>
+        <v>2671.35</v>
+      </c>
+      <c r="E306">
+        <f>[1]!S_DQ_Close(E$1,$A306)</f>
+        <v>1459.7972</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <v>43125</v>
+      </c>
+      <c r="B307">
+        <f>[1]!S_DQ_Close(B$1,$A307)</f>
+        <v>4700.5520999999999</v>
+      </c>
+      <c r="C307">
+        <f>[1]!S_DQ_Close(C$1,$A307)</f>
+        <v>173.82769999999999</v>
+      </c>
+      <c r="D307">
+        <f>[1]!S_DQ_Close(D$1,$A307)</f>
+        <v>2668.53</v>
+      </c>
+      <c r="E307">
+        <f>[1]!S_DQ_Close(E$1,$A307)</f>
+        <v>1459.9665</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <v>43126</v>
+      </c>
+      <c r="B308">
+        <f>[1]!S_DQ_Close(B$1,$A308)</f>
+        <v>4713.7997999999998</v>
+      </c>
+      <c r="C308">
+        <f>[1]!S_DQ_Close(C$1,$A308)</f>
+        <v>173.864</v>
+      </c>
+      <c r="D308">
+        <f>[1]!S_DQ_Close(D$1,$A308)</f>
+        <v>2683.63</v>
+      </c>
+      <c r="E308">
+        <f>[1]!S_DQ_Close(E$1,$A308)</f>
+        <v>1459.9665</v>
       </c>
     </row>
   </sheetData>
@@ -6674,10 +6905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6947,6 +7178,17 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>43100</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -20,10 +20,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>065.CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPGSCITR.SPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +35,10 @@
   </si>
   <si>
     <t>000906.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBA00101.CS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,37 +421,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("2016-11-01","2018-01-26","cols=1;rows=307")</f>
+        <f>[1]!TDays("2016-11-01","2018-03-15","cols=1;rows=336")</f>
         <v>42675</v>
       </c>
       <c r="B2">
@@ -6894,7 +6894,616 @@
       </c>
       <c r="E308">
         <f>[1]!S_DQ_Close(E$1,$A308)</f>
-        <v>1459.9665</v>
+        <v>1460.1385</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B309">
+        <f>[1]!S_DQ_Close(B$1,$A309)</f>
+        <v>4636.2295000000004</v>
+      </c>
+      <c r="C309">
+        <f>[1]!S_DQ_Close(C$1,$A309)</f>
+        <v>173.93510000000001</v>
+      </c>
+      <c r="D309">
+        <f>[1]!S_DQ_Close(D$1,$A309)</f>
+        <v>2667.41</v>
+      </c>
+      <c r="E309">
+        <f>[1]!S_DQ_Close(E$1,$A309)</f>
+        <v>1460.6436000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B310">
+        <f>[1]!S_DQ_Close(B$1,$A310)</f>
+        <v>4599.8720000000003</v>
+      </c>
+      <c r="C310">
+        <f>[1]!S_DQ_Close(C$1,$A310)</f>
+        <v>173.941</v>
+      </c>
+      <c r="D310">
+        <f>[1]!S_DQ_Close(D$1,$A310)</f>
+        <v>2644.47</v>
+      </c>
+      <c r="E310">
+        <f>[1]!S_DQ_Close(E$1,$A310)</f>
+        <v>1460.8133</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B311">
+        <f>[1]!S_DQ_Close(B$1,$A311)</f>
+        <v>4592.8593000000001</v>
+      </c>
+      <c r="C311">
+        <f>[1]!S_DQ_Close(C$1,$A311)</f>
+        <v>174.02780000000001</v>
+      </c>
+      <c r="D311">
+        <f>[1]!S_DQ_Close(D$1,$A311)</f>
+        <v>2644.13</v>
+      </c>
+      <c r="E311">
+        <f>[1]!S_DQ_Close(E$1,$A311)</f>
+        <v>1460.9847</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A312" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B312">
+        <f>[1]!S_DQ_Close(B$1,$A312)</f>
+        <v>4530.8</v>
+      </c>
+      <c r="C312">
+        <f>[1]!S_DQ_Close(C$1,$A312)</f>
+        <v>174.10059999999999</v>
+      </c>
+      <c r="D312">
+        <f>[1]!S_DQ_Close(D$1,$A312)</f>
+        <v>2665.63</v>
+      </c>
+      <c r="E312">
+        <f>[1]!S_DQ_Close(E$1,$A312)</f>
+        <v>1461.1563000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>43133</v>
+      </c>
+      <c r="B313">
+        <f>[1]!S_DQ_Close(B$1,$A313)</f>
+        <v>4554.9472999999998</v>
+      </c>
+      <c r="C313">
+        <f>[1]!S_DQ_Close(C$1,$A313)</f>
+        <v>174.1439</v>
+      </c>
+      <c r="D313">
+        <f>[1]!S_DQ_Close(D$1,$A313)</f>
+        <v>2644.34</v>
+      </c>
+      <c r="E313">
+        <f>[1]!S_DQ_Close(E$1,$A313)</f>
+        <v>1461.328</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B314">
+        <f>[1]!S_DQ_Close(B$1,$A314)</f>
+        <v>4556.0706</v>
+      </c>
+      <c r="C314">
+        <f>[1]!S_DQ_Close(C$1,$A314)</f>
+        <v>174.17830000000001</v>
+      </c>
+      <c r="D314">
+        <f>[1]!S_DQ_Close(D$1,$A314)</f>
+        <v>2616.06</v>
+      </c>
+      <c r="E314">
+        <f>[1]!S_DQ_Close(E$1,$A314)</f>
+        <v>1461.8335999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B315">
+        <f>[1]!S_DQ_Close(B$1,$A315)</f>
+        <v>4400.68</v>
+      </c>
+      <c r="C315">
+        <f>[1]!S_DQ_Close(C$1,$A315)</f>
+        <v>174.3638</v>
+      </c>
+      <c r="D315">
+        <f>[1]!S_DQ_Close(D$1,$A315)</f>
+        <v>2591.73</v>
+      </c>
+      <c r="E315">
+        <f>[1]!S_DQ_Close(E$1,$A315)</f>
+        <v>1462.0034000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>43138</v>
+      </c>
+      <c r="B316">
+        <f>[1]!S_DQ_Close(B$1,$A316)</f>
+        <v>4322.6605</v>
+      </c>
+      <c r="C316">
+        <f>[1]!S_DQ_Close(C$1,$A316)</f>
+        <v>174.4332</v>
+      </c>
+      <c r="D316">
+        <f>[1]!S_DQ_Close(D$1,$A316)</f>
+        <v>2548.31</v>
+      </c>
+      <c r="E316">
+        <f>[1]!S_DQ_Close(E$1,$A316)</f>
+        <v>1462.1727000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>43139</v>
+      </c>
+      <c r="B317">
+        <f>[1]!S_DQ_Close(B$1,$A317)</f>
+        <v>4301.8644999999997</v>
+      </c>
+      <c r="C317">
+        <f>[1]!S_DQ_Close(C$1,$A317)</f>
+        <v>174.4563</v>
+      </c>
+      <c r="D317">
+        <f>[1]!S_DQ_Close(D$1,$A317)</f>
+        <v>2532.5</v>
+      </c>
+      <c r="E317">
+        <f>[1]!S_DQ_Close(E$1,$A317)</f>
+        <v>1462.3434999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>43140</v>
+      </c>
+      <c r="B318">
+        <f>[1]!S_DQ_Close(B$1,$A318)</f>
+        <v>4124.5227000000004</v>
+      </c>
+      <c r="C318">
+        <f>[1]!S_DQ_Close(C$1,$A318)</f>
+        <v>174.48740000000001</v>
+      </c>
+      <c r="D318">
+        <f>[1]!S_DQ_Close(D$1,$A318)</f>
+        <v>2474.59</v>
+      </c>
+      <c r="E318">
+        <f>[1]!S_DQ_Close(E$1,$A318)</f>
+        <v>1462.5163</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>43143</v>
+      </c>
+      <c r="B319">
+        <f>[1]!S_DQ_Close(B$1,$A319)</f>
+        <v>4191.0807000000004</v>
+      </c>
+      <c r="C319">
+        <f>[1]!S_DQ_Close(C$1,$A319)</f>
+        <v>174.596</v>
+      </c>
+      <c r="D319">
+        <f>[1]!S_DQ_Close(D$1,$A319)</f>
+        <v>2483.13</v>
+      </c>
+      <c r="E319">
+        <f>[1]!S_DQ_Close(E$1,$A319)</f>
+        <v>1463.0246</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>43144</v>
+      </c>
+      <c r="B320">
+        <f>[1]!S_DQ_Close(B$1,$A320)</f>
+        <v>4234.7919000000002</v>
+      </c>
+      <c r="C320">
+        <f>[1]!S_DQ_Close(C$1,$A320)</f>
+        <v>174.63310000000001</v>
+      </c>
+      <c r="D320">
+        <f>[1]!S_DQ_Close(D$1,$A320)</f>
+        <v>2486.85</v>
+      </c>
+      <c r="E320">
+        <f>[1]!S_DQ_Close(E$1,$A320)</f>
+        <v>1463.1949999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>43145</v>
+      </c>
+      <c r="B321">
+        <f>[1]!S_DQ_Close(B$1,$A321)</f>
+        <v>4263.3600999999999</v>
+      </c>
+      <c r="C321">
+        <f>[1]!S_DQ_Close(C$1,$A321)</f>
+        <v>174.6713</v>
+      </c>
+      <c r="D321">
+        <f>[1]!S_DQ_Close(D$1,$A321)</f>
+        <v>2529.8000000000002</v>
+      </c>
+      <c r="E321">
+        <f>[1]!S_DQ_Close(E$1,$A321)</f>
+        <v>1463.3723</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>43153</v>
+      </c>
+      <c r="B322">
+        <f>[1]!S_DQ_Close(B$1,$A322)</f>
+        <v>4354.8860000000004</v>
+      </c>
+      <c r="C322">
+        <f>[1]!S_DQ_Close(C$1,$A322)</f>
+        <v>174.83099999999999</v>
+      </c>
+      <c r="D322">
+        <f>[1]!S_DQ_Close(D$1,$A322)</f>
+        <v>2586.61</v>
+      </c>
+      <c r="E322">
+        <f>[1]!S_DQ_Close(E$1,$A322)</f>
+        <v>1464.7130999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>43154</v>
+      </c>
+      <c r="B323">
+        <f>[1]!S_DQ_Close(B$1,$A323)</f>
+        <v>4373.7471999999998</v>
+      </c>
+      <c r="C323">
+        <f>[1]!S_DQ_Close(C$1,$A323)</f>
+        <v>174.88800000000001</v>
+      </c>
+      <c r="D323">
+        <f>[1]!S_DQ_Close(D$1,$A323)</f>
+        <v>2602.1999999999998</v>
+      </c>
+      <c r="E323">
+        <f>[1]!S_DQ_Close(E$1,$A323)</f>
+        <v>1464.8856000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>43157</v>
+      </c>
+      <c r="B324">
+        <f>[1]!S_DQ_Close(B$1,$A324)</f>
+        <v>4436.3374000000003</v>
+      </c>
+      <c r="C324">
+        <f>[1]!S_DQ_Close(C$1,$A324)</f>
+        <v>175.17939999999999</v>
+      </c>
+      <c r="D324">
+        <f>[1]!S_DQ_Close(D$1,$A324)</f>
+        <v>2614.9299999999998</v>
+      </c>
+      <c r="E324">
+        <f>[1]!S_DQ_Close(E$1,$A324)</f>
+        <v>1465.3895</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>43158</v>
+      </c>
+      <c r="B325">
+        <f>[1]!S_DQ_Close(B$1,$A325)</f>
+        <v>4384.8788999999997</v>
+      </c>
+      <c r="C325">
+        <f>[1]!S_DQ_Close(C$1,$A325)</f>
+        <v>175.30959999999999</v>
+      </c>
+      <c r="D325">
+        <f>[1]!S_DQ_Close(D$1,$A325)</f>
+        <v>2594.39</v>
+      </c>
+      <c r="E325">
+        <f>[1]!S_DQ_Close(E$1,$A325)</f>
+        <v>1465.5599</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B326">
+        <f>[1]!S_DQ_Close(B$1,$A326)</f>
+        <v>4358.8167999999996</v>
+      </c>
+      <c r="C326">
+        <f>[1]!S_DQ_Close(C$1,$A326)</f>
+        <v>175.39830000000001</v>
+      </c>
+      <c r="D326">
+        <f>[1]!S_DQ_Close(D$1,$A326)</f>
+        <v>2555.8200000000002</v>
+      </c>
+      <c r="E326">
+        <f>[1]!S_DQ_Close(E$1,$A326)</f>
+        <v>1465.7308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B327">
+        <f>[1]!S_DQ_Close(B$1,$A327)</f>
+        <v>4391.6480000000001</v>
+      </c>
+      <c r="C327">
+        <f>[1]!S_DQ_Close(C$1,$A327)</f>
+        <v>175.43119999999999</v>
+      </c>
+      <c r="D327">
+        <f>[1]!S_DQ_Close(D$1,$A327)</f>
+        <v>2542.4699999999998</v>
+      </c>
+      <c r="E327">
+        <f>[1]!S_DQ_Close(E$1,$A327)</f>
+        <v>1465.9046000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>43161</v>
+      </c>
+      <c r="B328">
+        <f>[1]!S_DQ_Close(B$1,$A328)</f>
+        <v>4359.0726999999997</v>
+      </c>
+      <c r="C328">
+        <f>[1]!S_DQ_Close(C$1,$A328)</f>
+        <v>175.4101</v>
+      </c>
+      <c r="D328">
+        <f>[1]!S_DQ_Close(D$1,$A328)</f>
+        <v>2545.59</v>
+      </c>
+      <c r="E328">
+        <f>[1]!S_DQ_Close(E$1,$A328)</f>
+        <v>1466.0772999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>43164</v>
+      </c>
+      <c r="B329">
+        <f>[1]!S_DQ_Close(B$1,$A329)</f>
+        <v>4361.8284999999996</v>
+      </c>
+      <c r="C329">
+        <f>[1]!S_DQ_Close(C$1,$A329)</f>
+        <v>175.41</v>
+      </c>
+      <c r="D329">
+        <f>[1]!S_DQ_Close(D$1,$A329)</f>
+        <v>2580.42</v>
+      </c>
+      <c r="E329">
+        <f>[1]!S_DQ_Close(E$1,$A329)</f>
+        <v>1466.5829000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>43165</v>
+      </c>
+      <c r="B330">
+        <f>[1]!S_DQ_Close(B$1,$A330)</f>
+        <v>4415.9844999999996</v>
+      </c>
+      <c r="C330">
+        <f>[1]!S_DQ_Close(C$1,$A330)</f>
+        <v>175.4453</v>
+      </c>
+      <c r="D330">
+        <f>[1]!S_DQ_Close(D$1,$A330)</f>
+        <v>2584.4</v>
+      </c>
+      <c r="E330">
+        <f>[1]!S_DQ_Close(E$1,$A330)</f>
+        <v>1466.7521999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>43166</v>
+      </c>
+      <c r="B331">
+        <f>[1]!S_DQ_Close(B$1,$A331)</f>
+        <v>4380.9326000000001</v>
+      </c>
+      <c r="C331">
+        <f>[1]!S_DQ_Close(C$1,$A331)</f>
+        <v>175.5163</v>
+      </c>
+      <c r="D331">
+        <f>[1]!S_DQ_Close(D$1,$A331)</f>
+        <v>2545.67</v>
+      </c>
+      <c r="E331">
+        <f>[1]!S_DQ_Close(E$1,$A331)</f>
+        <v>1466.9219000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>43167</v>
+      </c>
+      <c r="B332">
+        <f>[1]!S_DQ_Close(B$1,$A332)</f>
+        <v>4422.2775000000001</v>
+      </c>
+      <c r="C332">
+        <f>[1]!S_DQ_Close(C$1,$A332)</f>
+        <v>175.56659999999999</v>
+      </c>
+      <c r="D332">
+        <f>[1]!S_DQ_Close(D$1,$A332)</f>
+        <v>2523.25</v>
+      </c>
+      <c r="E332">
+        <f>[1]!S_DQ_Close(E$1,$A332)</f>
+        <v>1467.0947000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>43168</v>
+      </c>
+      <c r="B333">
+        <f>[1]!S_DQ_Close(B$1,$A333)</f>
+        <v>4461.4516000000003</v>
+      </c>
+      <c r="C333">
+        <f>[1]!S_DQ_Close(C$1,$A333)</f>
+        <v>175.60499999999999</v>
+      </c>
+      <c r="D333">
+        <f>[1]!S_DQ_Close(D$1,$A333)</f>
+        <v>2561.87</v>
+      </c>
+      <c r="E333">
+        <f>[1]!S_DQ_Close(E$1,$A333)</f>
+        <v>1467.269</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>43171</v>
+      </c>
+      <c r="B334">
+        <f>[1]!S_DQ_Close(B$1,$A334)</f>
+        <v>4493.0475999999999</v>
+      </c>
+      <c r="C334">
+        <f>[1]!S_DQ_Close(C$1,$A334)</f>
+        <v>175.68889999999999</v>
+      </c>
+      <c r="D334">
+        <f>[1]!S_DQ_Close(D$1,$A334)</f>
+        <v>2545.11</v>
+      </c>
+      <c r="E334">
+        <f>[1]!S_DQ_Close(E$1,$A334)</f>
+        <v>1467.7733000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>43172</v>
+      </c>
+      <c r="B335">
+        <f>[1]!S_DQ_Close(B$1,$A335)</f>
+        <v>4455.9858999999997</v>
+      </c>
+      <c r="C335">
+        <f>[1]!S_DQ_Close(C$1,$A335)</f>
+        <v>175.65440000000001</v>
+      </c>
+      <c r="D335">
+        <f>[1]!S_DQ_Close(D$1,$A335)</f>
+        <v>2539.33</v>
+      </c>
+      <c r="E335">
+        <f>[1]!S_DQ_Close(E$1,$A335)</f>
+        <v>1467.9449</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>43173</v>
+      </c>
+      <c r="B336">
+        <f>[1]!S_DQ_Close(B$1,$A336)</f>
+        <v>4429.5474999999997</v>
+      </c>
+      <c r="C336">
+        <f>[1]!S_DQ_Close(C$1,$A336)</f>
+        <v>175.6661</v>
+      </c>
+      <c r="D336">
+        <f>[1]!S_DQ_Close(D$1,$A336)</f>
+        <v>2545.42</v>
+      </c>
+      <c r="E336">
+        <f>[1]!S_DQ_Close(E$1,$A336)</f>
+        <v>1468.1144999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>43174</v>
+      </c>
+      <c r="B337">
+        <f>[1]!S_DQ_Close(B$1,$A337)</f>
+        <v>4446.2381999999998</v>
+      </c>
+      <c r="C337">
+        <f>[1]!S_DQ_Close(C$1,$A337)</f>
+        <v>175.69909999999999</v>
+      </c>
+      <c r="D337">
+        <f>[1]!S_DQ_Close(D$1,$A337)</f>
+        <v>2543.86</v>
+      </c>
+      <c r="E337">
+        <f>[1]!S_DQ_Close(E$1,$A337)</f>
+        <v>1468.2844</v>
       </c>
     </row>
   </sheetData>
@@ -6905,10 +7514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6919,10 +7528,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7187,6 +7796,14 @@
       </c>
       <c r="C25" s="3">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/资产.xlsx
+++ b/MVPLT/data/资产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337:E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <f>[1]!TDays("2016-11-01","2018-03-15","cols=1;rows=336")</f>
+        <f>[1]!TDays("2016-11-01","2018-04-04","cols=1;rows=350")</f>
         <v>42675</v>
       </c>
       <c r="B2">
@@ -7504,6 +7504,300 @@
       <c r="E337">
         <f>[1]!S_DQ_Close(E$1,$A337)</f>
         <v>1468.2844</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>43175</v>
+      </c>
+      <c r="B338">
+        <f>[1]!S_DQ_Close(B$1,$A338)</f>
+        <v>4407.9432999999999</v>
+      </c>
+      <c r="C338">
+        <f>[1]!S_DQ_Close(C$1,$A338)</f>
+        <v>175.7577</v>
+      </c>
+      <c r="D338">
+        <f>[1]!S_DQ_Close(D$1,$A338)</f>
+        <v>2563.0700000000002</v>
+      </c>
+      <c r="E338">
+        <f>[1]!S_DQ_Close(E$1,$A338)</f>
+        <v>1468.4593</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>43178</v>
+      </c>
+      <c r="B339">
+        <f>[1]!S_DQ_Close(B$1,$A339)</f>
+        <v>4423.7070000000003</v>
+      </c>
+      <c r="C339">
+        <f>[1]!S_DQ_Close(C$1,$A339)</f>
+        <v>175.80179999999999</v>
+      </c>
+      <c r="D339">
+        <f>[1]!S_DQ_Close(D$1,$A339)</f>
+        <v>2544.1799999999998</v>
+      </c>
+      <c r="E339">
+        <f>[1]!S_DQ_Close(E$1,$A339)</f>
+        <v>1468.9664</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>43179</v>
+      </c>
+      <c r="B340">
+        <f>[1]!S_DQ_Close(B$1,$A340)</f>
+        <v>4430.1706000000004</v>
+      </c>
+      <c r="C340">
+        <f>[1]!S_DQ_Close(C$1,$A340)</f>
+        <v>175.8997</v>
+      </c>
+      <c r="D340">
+        <f>[1]!S_DQ_Close(D$1,$A340)</f>
+        <v>2572.33</v>
+      </c>
+      <c r="E340">
+        <f>[1]!S_DQ_Close(E$1,$A340)</f>
+        <v>1469.1415999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>43180</v>
+      </c>
+      <c r="B341">
+        <f>[1]!S_DQ_Close(B$1,$A341)</f>
+        <v>4408.5079999999998</v>
+      </c>
+      <c r="C341">
+        <f>[1]!S_DQ_Close(C$1,$A341)</f>
+        <v>175.99379999999999</v>
+      </c>
+      <c r="D341">
+        <f>[1]!S_DQ_Close(D$1,$A341)</f>
+        <v>2614.66</v>
+      </c>
+      <c r="E341">
+        <f>[1]!S_DQ_Close(E$1,$A341)</f>
+        <v>1469.3161</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A342" s="1">
+        <v>43181</v>
+      </c>
+      <c r="B342">
+        <f>[1]!S_DQ_Close(B$1,$A342)</f>
+        <v>4370.5172000000002</v>
+      </c>
+      <c r="C342">
+        <f>[1]!S_DQ_Close(C$1,$A342)</f>
+        <v>176.1431</v>
+      </c>
+      <c r="D342">
+        <f>[1]!S_DQ_Close(D$1,$A342)</f>
+        <v>2596.5100000000002</v>
+      </c>
+      <c r="E342">
+        <f>[1]!S_DQ_Close(E$1,$A342)</f>
+        <v>1469.4881</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>43182</v>
+      </c>
+      <c r="B343">
+        <f>[1]!S_DQ_Close(B$1,$A343)</f>
+        <v>4219.3333000000002</v>
+      </c>
+      <c r="C343">
+        <f>[1]!S_DQ_Close(C$1,$A343)</f>
+        <v>176.52070000000001</v>
+      </c>
+      <c r="D343">
+        <f>[1]!S_DQ_Close(D$1,$A343)</f>
+        <v>2624.74</v>
+      </c>
+      <c r="E343">
+        <f>[1]!S_DQ_Close(E$1,$A343)</f>
+        <v>1469.6631</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>43185</v>
+      </c>
+      <c r="B344">
+        <f>[1]!S_DQ_Close(B$1,$A344)</f>
+        <v>4220.5832</v>
+      </c>
+      <c r="C344">
+        <f>[1]!S_DQ_Close(C$1,$A344)</f>
+        <v>176.61680000000001</v>
+      </c>
+      <c r="D344">
+        <f>[1]!S_DQ_Close(D$1,$A344)</f>
+        <v>2615.04</v>
+      </c>
+      <c r="E344">
+        <f>[1]!S_DQ_Close(E$1,$A344)</f>
+        <v>1470.1765</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>43186</v>
+      </c>
+      <c r="B345">
+        <f>[1]!S_DQ_Close(B$1,$A345)</f>
+        <v>4271.8915999999999</v>
+      </c>
+      <c r="C345">
+        <f>[1]!S_DQ_Close(C$1,$A345)</f>
+        <v>176.55930000000001</v>
+      </c>
+      <c r="D345">
+        <f>[1]!S_DQ_Close(D$1,$A345)</f>
+        <v>2613.02</v>
+      </c>
+      <c r="E345">
+        <f>[1]!S_DQ_Close(E$1,$A345)</f>
+        <v>1470.3556000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A346" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B346">
+        <f>[1]!S_DQ_Close(B$1,$A346)</f>
+        <v>4203.6453000000001</v>
+      </c>
+      <c r="C346">
+        <f>[1]!S_DQ_Close(C$1,$A346)</f>
+        <v>176.6223</v>
+      </c>
+      <c r="D346">
+        <f>[1]!S_DQ_Close(D$1,$A346)</f>
+        <v>2595.7199999999998</v>
+      </c>
+      <c r="E346">
+        <f>[1]!S_DQ_Close(E$1,$A346)</f>
+        <v>1470.5377000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A347" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B347">
+        <f>[1]!S_DQ_Close(B$1,$A347)</f>
+        <v>4256.4151000000002</v>
+      </c>
+      <c r="C347">
+        <f>[1]!S_DQ_Close(C$1,$A347)</f>
+        <v>176.637</v>
+      </c>
+      <c r="D347">
+        <f>[1]!S_DQ_Close(D$1,$A347)</f>
+        <v>2612.6</v>
+      </c>
+      <c r="E347">
+        <f>[1]!S_DQ_Close(E$1,$A347)</f>
+        <v>1470.7198000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A348" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B348">
+        <f>[1]!S_DQ_Close(B$1,$A348)</f>
+        <v>4274.7960999999996</v>
+      </c>
+      <c r="C348">
+        <f>[1]!S_DQ_Close(C$1,$A348)</f>
+        <v>176.7167</v>
+      </c>
+      <c r="D348">
+        <f>[1]!S_DQ_Close(D$1,$A348)</f>
+        <v>2612.6</v>
+      </c>
+      <c r="E348">
+        <f>[1]!S_DQ_Close(E$1,$A348)</f>
+        <v>1470.9049</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A349" s="1">
+        <v>43192</v>
+      </c>
+      <c r="B349">
+        <f>[1]!S_DQ_Close(B$1,$A349)</f>
+        <v>4266.8019999999997</v>
+      </c>
+      <c r="C349">
+        <f>[1]!S_DQ_Close(C$1,$A349)</f>
+        <v>176.84610000000001</v>
+      </c>
+      <c r="D349">
+        <f>[1]!S_DQ_Close(D$1,$A349)</f>
+        <v>2567.75</v>
+      </c>
+      <c r="E349">
+        <f>[1]!S_DQ_Close(E$1,$A349)</f>
+        <v>1471.4258</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A350" s="1">
+        <v>43193</v>
+      </c>
+      <c r="B350">
+        <f>[1]!S_DQ_Close(B$1,$A350)</f>
+        <v>4235.5726999999997</v>
+      </c>
+      <c r="C350">
+        <f>[1]!S_DQ_Close(C$1,$A350)</f>
+        <v>176.93350000000001</v>
+      </c>
+      <c r="D350">
+        <f>[1]!S_DQ_Close(D$1,$A350)</f>
+        <v>2578.4499999999998</v>
+      </c>
+      <c r="E350">
+        <f>[1]!S_DQ_Close(E$1,$A350)</f>
+        <v>1471.5995</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A351" s="1">
+        <v>43194</v>
+      </c>
+      <c r="B351">
+        <f>[1]!S_DQ_Close(B$1,$A351)</f>
+        <v>4221.6495999999997</v>
+      </c>
+      <c r="C351">
+        <f>[1]!S_DQ_Close(C$1,$A351)</f>
+        <v>177.0693</v>
+      </c>
+      <c r="D351">
+        <f>[1]!S_DQ_Close(D$1,$A351)</f>
+        <v>2571.7199999999998</v>
+      </c>
+      <c r="E351">
+        <f>[1]!S_DQ_Close(E$1,$A351)</f>
+        <v>1471.7742000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7514,10 +7808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7806,6 +8100,14 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
